--- a/excel/import invoice.xlsx
+++ b/excel/import invoice.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/fa_sai/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{09EC314E-4D1A-6241-B734-2135BDBFD78F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90A680BB-BE6F-3046-AA19-549A95663E85}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="960" windowWidth="25040" windowHeight="14060" xr2:uid="{FF0413FF-BF96-BD42-A4B8-E5755A10834D}"/>
+    <workbookView xWindow="1280" yWindow="1960" windowWidth="24240" windowHeight="13060" xr2:uid="{9FD7B6F2-6130-294A-869E-9040C2B0795A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="19">
   <si>
     <t>Invoice Number</t>
   </si>
@@ -70,6 +70,18 @@
   </si>
   <si>
     <t>7288-4105</t>
+  </si>
+  <si>
+    <t>JL01-8232</t>
+  </si>
+  <si>
+    <t>7174-1147-30</t>
+  </si>
+  <si>
+    <t>PBT COVER</t>
+  </si>
+  <si>
+    <t>7283-0393-40</t>
   </si>
 </sst>
 </file>
@@ -444,11 +456,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9B922DE-E715-7145-AAAA-ED8AE858BB6A}">
-  <dimension ref="A1:G6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BD29480-4CCB-694E-9DE3-D08F756A8C73}">
+  <dimension ref="A1:G50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G6"/>
+      <selection sqref="A1:G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -591,6 +603,458 @@
         <v>299.72000000000003</v>
       </c>
     </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="5">
+        <v>43592</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="6">
+        <v>1860</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="6">
+        <v>299.72000000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="5">
+        <v>43592</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="6">
+        <v>500</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="6">
+        <v>451.65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="5">
+        <v>43592</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="6">
+        <v>1000</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" s="6">
+        <v>451.65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="5">
+        <v>43592</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="6">
+        <v>3000</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="6">
+        <v>264.39999999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="4"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="4"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="4"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="4"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="4"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="4"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="4"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="4"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="4"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="4"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="4"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="4"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="4"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="4"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="4"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="4"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="4"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="4"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="4"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="4"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="4"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" s="4"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" s="4"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" s="4"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" s="4"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" s="4"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" s="4"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" s="4"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" s="4"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" s="4"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" s="4"/>
+      <c r="B41" s="5"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" s="4"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="6"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43" s="4"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44" s="4"/>
+      <c r="B44" s="5"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45" s="4"/>
+      <c r="B45" s="5"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46" s="4"/>
+      <c r="B46" s="5"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="6"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47" s="4"/>
+      <c r="B47" s="5"/>
+      <c r="C47" s="6"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="6"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48" s="4"/>
+      <c r="B48" s="5"/>
+      <c r="C48" s="6"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="6"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A49" s="4"/>
+      <c r="B49" s="5"/>
+      <c r="C49" s="6"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="6"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A50" s="4"/>
+      <c r="B50" s="5"/>
+      <c r="C50" s="6"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="6"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="6"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/excel/import invoice.xlsx
+++ b/excel/import invoice.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/fa_sai/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90A680BB-BE6F-3046-AA19-549A95663E85}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A576E4F-F3A7-A345-A013-8DBF79C0D0BA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1280" yWindow="1960" windowWidth="24240" windowHeight="13060" xr2:uid="{9FD7B6F2-6130-294A-869E-9040C2B0795A}"/>
+    <workbookView xWindow="500" yWindow="980" windowWidth="24240" windowHeight="13060" xr2:uid="{9FD7B6F2-6130-294A-869E-9040C2B0795A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="48">
   <si>
     <t>Invoice Number</t>
   </si>
@@ -82,6 +82,93 @@
   </si>
   <si>
     <t>7283-0393-40</t>
+  </si>
+  <si>
+    <t>RM01-1883</t>
+  </si>
+  <si>
+    <t>7286-7860</t>
+  </si>
+  <si>
+    <t>RM01-1885</t>
+  </si>
+  <si>
+    <t>7289-7414-70</t>
+  </si>
+  <si>
+    <t>RM01-1886</t>
+  </si>
+  <si>
+    <t>RM01-1887</t>
+  </si>
+  <si>
+    <t>7289-7031</t>
+  </si>
+  <si>
+    <t>7289-7032</t>
+  </si>
+  <si>
+    <t>7289-7033-30</t>
+  </si>
+  <si>
+    <t>JL01-8233</t>
+  </si>
+  <si>
+    <t>7173-2374-30</t>
+  </si>
+  <si>
+    <t>PBT LEVER</t>
+  </si>
+  <si>
+    <t>JL01-8234</t>
+  </si>
+  <si>
+    <t>7116-5936-02</t>
+  </si>
+  <si>
+    <t>TERMINAL</t>
+  </si>
+  <si>
+    <t>JL01-8235</t>
+  </si>
+  <si>
+    <t>7283-1039-30</t>
+  </si>
+  <si>
+    <t>7289-7976-30</t>
+  </si>
+  <si>
+    <t>JL01-8236</t>
+  </si>
+  <si>
+    <t>RM01-1888</t>
+  </si>
+  <si>
+    <t>7173-0417-30</t>
+  </si>
+  <si>
+    <t>RM01-1889</t>
+  </si>
+  <si>
+    <t>7289-7417-70</t>
+  </si>
+  <si>
+    <t>JL01-8020</t>
+  </si>
+  <si>
+    <t>7116-6563-02</t>
+  </si>
+  <si>
+    <t>7035-6972</t>
+  </si>
+  <si>
+    <t>RUBBER GROMMET</t>
+  </si>
+  <si>
+    <t>7116-4727-08</t>
+  </si>
+  <si>
+    <t>7283-1036-30</t>
   </si>
 </sst>
 </file>
@@ -460,10 +547,14 @@
   <dimension ref="A1:G50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G10"/>
+      <selection activeCell="A11" sqref="A11:AB57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -696,247 +787,625 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="4"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
+      <c r="A11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="5">
+        <v>43592</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="6">
+        <v>500</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" s="6">
+        <v>451.65</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="4"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
+      <c r="A12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="5">
+        <v>43592</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="6">
+        <v>1000</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" s="6">
+        <v>451.65</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="4"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
+      <c r="A13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="5">
+        <v>43592</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="6">
+        <v>3000</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="6">
+        <v>264.39999999999998</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="4"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
+      <c r="A14" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="5">
+        <v>43592</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="6">
+        <v>5000</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="6">
+        <v>264.39999999999998</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="4"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
+      <c r="A15" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="5">
+        <v>43592</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="6">
+        <v>1800</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" s="6">
+        <v>191.74</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="4"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
+      <c r="A16" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="5">
+        <v>43592</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="6">
+        <v>3600</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G16" s="6">
+        <v>191.74</v>
+      </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="4"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
+      <c r="A17" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="5">
+        <v>43592</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="6">
+        <v>960</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G17" s="6">
+        <v>602.39</v>
+      </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="4"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
+      <c r="A18" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="5">
+        <v>43592</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="6">
+        <v>4200</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G18" s="6">
+        <v>191.74</v>
+      </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="4"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
+      <c r="A19" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="5">
+        <v>43592</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="6">
+        <v>4400</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G19" s="6">
+        <v>233.12</v>
+      </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="4"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
+      <c r="A20" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="5">
+        <v>43592</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="6">
+        <v>3960</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G20" s="6">
+        <v>222.84</v>
+      </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="4"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
+      <c r="A21" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="5">
+        <v>43592</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" s="6">
+        <v>5280</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G21" s="6">
+        <v>224.4</v>
+      </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="4"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
+      <c r="A22" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="5">
+        <v>43593</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22" s="6">
+        <v>13600</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G22" s="6">
+        <v>71.739999999999995</v>
+      </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="4"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
+      <c r="A23" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" s="5">
+        <v>43593</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23" s="6">
+        <v>200</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G23" s="6">
+        <v>71.739999999999995</v>
+      </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="4"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
+      <c r="A24" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="5">
+        <v>43593</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" s="6">
+        <v>15000</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G24" s="6">
+        <v>266.61</v>
+      </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="4"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
+      <c r="A25" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" s="5">
+        <v>43593</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D25" s="6">
+        <v>1500</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G25" s="6">
+        <v>317.89</v>
+      </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="4"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
+      <c r="A26" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26" s="5">
+        <v>43593</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D26" s="6">
+        <v>640</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G26" s="6">
+        <v>1008.99</v>
+      </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="4"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
+      <c r="A27" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B27" s="5">
+        <v>43593</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" s="6">
+        <v>2500</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G27" s="6">
+        <v>135.13999999999999</v>
+      </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="4"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
+      <c r="A28" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28" s="5">
+        <v>43593</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" s="6">
+        <v>1100</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G28" s="6">
+        <v>135.13999999999999</v>
+      </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="4"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
+      <c r="A29" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29" s="5">
+        <v>43593</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29" s="6">
+        <v>900</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G29" s="6">
+        <v>135.13999999999999</v>
+      </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="4"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
+      <c r="A30" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B30" s="5">
+        <v>43593</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D30" s="6">
+        <v>4092</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G30" s="6">
+        <v>299.72000000000003</v>
+      </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="4"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
+      <c r="A31" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B31" s="5">
+        <v>43593</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D31" s="6">
+        <v>17600</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G31" s="6">
+        <v>68.069999999999993</v>
+      </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="4"/>
-      <c r="B32" s="5"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
+      <c r="A32" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32" s="5">
+        <v>43593</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D32" s="6">
+        <v>1440</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G32" s="6">
+        <v>599.36</v>
+      </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" s="4"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
+      <c r="A33" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B33" s="5">
+        <v>43525</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D33" s="6">
+        <v>35000</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G33" s="6">
+        <v>11.93</v>
+      </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" s="4"/>
-      <c r="B34" s="5"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
+      <c r="A34" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34" s="5">
+        <v>43525</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D34" s="6">
+        <v>35000</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G34" s="6">
+        <v>11.93</v>
+      </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" s="4"/>
-      <c r="B35" s="5"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
+      <c r="A35" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B35" s="5">
+        <v>43525</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D35" s="6">
+        <v>200</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G35" s="6">
+        <v>247.8</v>
+      </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="4"/>
-      <c r="B36" s="5"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="6"/>
+      <c r="A36" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B36" s="5">
+        <v>43525</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D36" s="6">
+        <v>75000</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G36" s="6">
+        <v>26.61</v>
+      </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37" s="4"/>
-      <c r="B37" s="5"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
+      <c r="A37" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B37" s="5">
+        <v>43525</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D37" s="6">
+        <v>600</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G37" s="6">
+        <v>372.75</v>
+      </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="4"/>

--- a/excel/import invoice.xlsx
+++ b/excel/import invoice.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/fa_sai/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A576E4F-F3A7-A345-A013-8DBF79C0D0BA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85734B13-5458-4C42-9C3E-ED4967618815}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="500" yWindow="980" windowWidth="24240" windowHeight="13060" xr2:uid="{9FD7B6F2-6130-294A-869E-9040C2B0795A}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14560" xr2:uid="{9FD7B6F2-6130-294A-869E-9040C2B0795A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -175,6 +175,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -210,12 +213,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -224,12 +224,16 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -546,12 +550,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BD29480-4CCB-694E-9DE3-D08F756A8C73}">
   <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:AB57"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="2" max="2" width="11.33203125" style="7" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.33203125" bestFit="1" customWidth="1"/>
   </cols>
@@ -560,969 +565,969 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="5">
-        <v>43592</v>
-      </c>
-      <c r="C2" s="6" t="s">
+      <c r="B2" s="6">
+        <v>43592</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="4">
         <v>1000</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="6">
+      <c r="E2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="4">
         <v>52.48</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="5">
-        <v>43592</v>
-      </c>
-      <c r="C3" s="6" t="s">
+      <c r="B3" s="6">
+        <v>43592</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="4">
         <v>4000</v>
       </c>
-      <c r="E3" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="6">
+      <c r="E3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="4">
         <v>52.48</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="5">
-        <v>43592</v>
-      </c>
-      <c r="C4" s="6" t="s">
+      <c r="B4" s="6">
+        <v>43592</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="4">
         <v>4000</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="6">
+      <c r="E4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="4">
         <v>52.48</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="5">
-        <v>43592</v>
-      </c>
-      <c r="C5" s="6" t="s">
+      <c r="B5" s="6">
+        <v>43592</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="4">
         <v>5000</v>
       </c>
-      <c r="E5" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" s="6">
+      <c r="E5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="4">
         <v>135.13999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="5">
-        <v>43592</v>
-      </c>
-      <c r="C6" s="6" t="s">
+      <c r="B6" s="6">
+        <v>43592</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="4">
         <v>1116</v>
       </c>
-      <c r="E6" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" s="6">
+      <c r="E6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="4">
         <v>299.72000000000003</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="5">
-        <v>43592</v>
-      </c>
-      <c r="C7" s="6" t="s">
+      <c r="B7" s="6">
+        <v>43592</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="4">
         <v>1860</v>
       </c>
-      <c r="E7" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" s="6">
+      <c r="E7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="4">
         <v>299.72000000000003</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="5">
-        <v>43592</v>
-      </c>
-      <c r="C8" s="6" t="s">
+      <c r="B8" s="6">
+        <v>43592</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="4">
         <v>500</v>
       </c>
-      <c r="E8" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="6" t="s">
+      <c r="E8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8" s="4">
         <v>451.65</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="5">
-        <v>43592</v>
-      </c>
-      <c r="C9" s="6" t="s">
+      <c r="B9" s="6">
+        <v>43592</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="4">
         <v>1000</v>
       </c>
-      <c r="E9" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" s="6" t="s">
+      <c r="E9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9" s="4">
         <v>451.65</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="5">
-        <v>43592</v>
-      </c>
-      <c r="C10" s="6" t="s">
+      <c r="B10" s="6">
+        <v>43592</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="4">
         <v>3000</v>
       </c>
-      <c r="E10" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G10" s="6">
+      <c r="E10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="4">
         <v>264.39999999999998</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="5">
-        <v>43592</v>
-      </c>
-      <c r="C11" s="6" t="s">
+      <c r="B11" s="6">
+        <v>43592</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="4">
         <v>500</v>
       </c>
-      <c r="E11" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F11" s="6" t="s">
+      <c r="E11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G11" s="6">
+      <c r="G11" s="4">
         <v>451.65</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="5">
-        <v>43592</v>
-      </c>
-      <c r="C12" s="6" t="s">
+      <c r="B12" s="6">
+        <v>43592</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="4">
         <v>1000</v>
       </c>
-      <c r="E12" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F12" s="6" t="s">
+      <c r="E12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G12" s="6">
+      <c r="G12" s="4">
         <v>451.65</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="5">
-        <v>43592</v>
-      </c>
-      <c r="C13" s="6" t="s">
+      <c r="B13" s="6">
+        <v>43592</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="4">
         <v>3000</v>
       </c>
-      <c r="E13" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G13" s="6">
+      <c r="E13" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="4">
         <v>264.39999999999998</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="5">
-        <v>43592</v>
-      </c>
-      <c r="C14" s="6" t="s">
+      <c r="B14" s="6">
+        <v>43592</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14" s="4">
         <v>5000</v>
       </c>
-      <c r="E14" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G14" s="6">
+      <c r="E14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="4">
         <v>264.39999999999998</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="5">
-        <v>43592</v>
-      </c>
-      <c r="C15" s="6" t="s">
+      <c r="B15" s="6">
+        <v>43592</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15" s="4">
         <v>1800</v>
       </c>
-      <c r="E15" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G15" s="6">
+      <c r="E15" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" s="4">
         <v>191.74</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="5">
-        <v>43592</v>
-      </c>
-      <c r="C16" s="6" t="s">
+      <c r="B16" s="6">
+        <v>43592</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D16" s="4">
         <v>3600</v>
       </c>
-      <c r="E16" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G16" s="6">
+      <c r="E16" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G16" s="4">
         <v>191.74</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="5">
-        <v>43592</v>
-      </c>
-      <c r="C17" s="6" t="s">
+      <c r="B17" s="6">
+        <v>43592</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D17" s="4">
         <v>960</v>
       </c>
-      <c r="E17" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G17" s="6">
+      <c r="E17" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G17" s="4">
         <v>602.39</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="5">
-        <v>43592</v>
-      </c>
-      <c r="C18" s="6" t="s">
+      <c r="B18" s="6">
+        <v>43592</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D18" s="4">
         <v>4200</v>
       </c>
-      <c r="E18" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G18" s="6">
+      <c r="E18" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G18" s="4">
         <v>191.74</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="5">
-        <v>43592</v>
-      </c>
-      <c r="C19" s="6" t="s">
+      <c r="B19" s="6">
+        <v>43592</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D19" s="4">
         <v>4400</v>
       </c>
-      <c r="E19" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G19" s="6">
+      <c r="E19" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G19" s="4">
         <v>233.12</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="5">
-        <v>43592</v>
-      </c>
-      <c r="C20" s="6" t="s">
+      <c r="B20" s="6">
+        <v>43592</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D20" s="6">
+      <c r="D20" s="4">
         <v>3960</v>
       </c>
-      <c r="E20" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G20" s="6">
+      <c r="E20" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G20" s="4">
         <v>222.84</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="5">
-        <v>43592</v>
-      </c>
-      <c r="C21" s="6" t="s">
+      <c r="B21" s="6">
+        <v>43592</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D21" s="6">
+      <c r="D21" s="4">
         <v>5280</v>
       </c>
-      <c r="E21" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G21" s="6">
+      <c r="E21" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G21" s="4">
         <v>224.4</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B22" s="5">
+      <c r="B22" s="6">
         <v>43593</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D22" s="6">
+      <c r="D22" s="4">
         <v>13600</v>
       </c>
-      <c r="E22" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F22" s="6" t="s">
+      <c r="E22" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="G22" s="6">
+      <c r="G22" s="4">
         <v>71.739999999999995</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B23" s="5">
+      <c r="B23" s="6">
         <v>43593</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D23" s="6">
+      <c r="D23" s="4">
         <v>200</v>
       </c>
-      <c r="E23" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F23" s="6" t="s">
+      <c r="E23" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="G23" s="6">
+      <c r="G23" s="4">
         <v>71.739999999999995</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B24" s="5">
+      <c r="B24" s="6">
         <v>43593</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D24" s="6">
+      <c r="D24" s="4">
         <v>15000</v>
       </c>
-      <c r="E24" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F24" s="6" t="s">
+      <c r="E24" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F24" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="G24" s="6">
+      <c r="G24" s="4">
         <v>266.61</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B25" s="5">
+      <c r="B25" s="6">
         <v>43593</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D25" s="6">
+      <c r="D25" s="4">
         <v>1500</v>
       </c>
-      <c r="E25" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F25" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G25" s="6">
+      <c r="E25" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G25" s="4">
         <v>317.89</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="4" t="s">
+      <c r="A26" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B26" s="5">
+      <c r="B26" s="6">
         <v>43593</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D26" s="6">
+      <c r="D26" s="4">
         <v>640</v>
       </c>
-      <c r="E26" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G26" s="6">
+      <c r="E26" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G26" s="4">
         <v>1008.99</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="4" t="s">
+      <c r="A27" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B27" s="5">
+      <c r="B27" s="6">
         <v>43593</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C27" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D27" s="6">
+      <c r="D27" s="4">
         <v>2500</v>
       </c>
-      <c r="E27" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G27" s="6">
+      <c r="E27" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G27" s="4">
         <v>135.13999999999999</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="4" t="s">
+      <c r="A28" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B28" s="5">
+      <c r="B28" s="6">
         <v>43593</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="C28" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D28" s="6">
+      <c r="D28" s="4">
         <v>1100</v>
       </c>
-      <c r="E28" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F28" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G28" s="6">
+      <c r="E28" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G28" s="4">
         <v>135.13999999999999</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="4" t="s">
+      <c r="A29" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B29" s="5">
+      <c r="B29" s="6">
         <v>43593</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="C29" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D29" s="6">
+      <c r="D29" s="4">
         <v>900</v>
       </c>
-      <c r="E29" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F29" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G29" s="6">
+      <c r="E29" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G29" s="4">
         <v>135.13999999999999</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="4" t="s">
+      <c r="A30" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B30" s="5">
+      <c r="B30" s="6">
+        <v>43685</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D30" s="4">
+        <v>4092</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G30" s="4">
+        <v>299.72000000000003</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B31" s="6">
         <v>43593</v>
       </c>
-      <c r="C30" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D30" s="6">
-        <v>4092</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F30" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G30" s="6">
-        <v>299.72000000000003</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B31" s="5">
+      <c r="C31" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D31" s="4">
+        <v>17600</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G31" s="4">
+        <v>68.069999999999993</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32" s="6">
         <v>43593</v>
       </c>
-      <c r="C31" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D31" s="6">
-        <v>17600</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F31" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="G31" s="6">
-        <v>68.069999999999993</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B32" s="5">
-        <v>43593</v>
-      </c>
-      <c r="C32" s="6" t="s">
+      <c r="C32" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D32" s="6">
+      <c r="D32" s="4">
         <v>1440</v>
       </c>
-      <c r="E32" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F32" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G32" s="6">
+      <c r="E32" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G32" s="4">
         <v>599.36</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" s="4" t="s">
+      <c r="A33" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B33" s="5">
+      <c r="B33" s="6">
         <v>43525</v>
       </c>
-      <c r="C33" s="6" t="s">
+      <c r="C33" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D33" s="6">
+      <c r="D33" s="4">
         <v>35000</v>
       </c>
-      <c r="E33" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F33" s="6" t="s">
+      <c r="E33" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F33" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="G33" s="6">
+      <c r="G33" s="4">
         <v>11.93</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" s="4" t="s">
+      <c r="A34" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B34" s="5">
+      <c r="B34" s="6">
         <v>43525</v>
       </c>
-      <c r="C34" s="6" t="s">
+      <c r="C34" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D34" s="6">
+      <c r="D34" s="4">
         <v>35000</v>
       </c>
-      <c r="E34" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F34" s="6" t="s">
+      <c r="E34" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F34" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="G34" s="6">
+      <c r="G34" s="4">
         <v>11.93</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" s="4" t="s">
+      <c r="A35" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B35" s="5">
+      <c r="B35" s="6">
         <v>43525</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="C35" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D35" s="6">
+      <c r="D35" s="4">
         <v>200</v>
       </c>
-      <c r="E35" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F35" s="6" t="s">
+      <c r="E35" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F35" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="G35" s="6">
+      <c r="G35" s="4">
         <v>247.8</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="4" t="s">
+      <c r="A36" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B36" s="5">
+      <c r="B36" s="6">
         <v>43525</v>
       </c>
-      <c r="C36" s="6" t="s">
+      <c r="C36" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D36" s="6">
+      <c r="D36" s="4">
         <v>75000</v>
       </c>
-      <c r="E36" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F36" s="6" t="s">
+      <c r="E36" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F36" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="G36" s="6">
+      <c r="G36" s="4">
         <v>26.61</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37" s="4" t="s">
+      <c r="A37" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B37" s="5">
+      <c r="B37" s="6">
         <v>43525</v>
       </c>
-      <c r="C37" s="6" t="s">
+      <c r="C37" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D37" s="6">
+      <c r="D37" s="4">
         <v>600</v>
       </c>
-      <c r="E37" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F37" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G37" s="6">
+      <c r="E37" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G37" s="4">
         <v>372.75</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A38" s="4"/>
-      <c r="B38" s="5"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="6"/>
+      <c r="A38" s="3"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39" s="4"/>
-      <c r="B39" s="5"/>
-      <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
-      <c r="F39" s="6"/>
-      <c r="G39" s="6"/>
+      <c r="A39" s="3"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A40" s="4"/>
-      <c r="B40" s="5"/>
-      <c r="C40" s="6"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6"/>
-      <c r="F40" s="6"/>
-      <c r="G40" s="6"/>
+      <c r="A40" s="3"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A41" s="4"/>
-      <c r="B41" s="5"/>
-      <c r="C41" s="6"/>
-      <c r="D41" s="6"/>
-      <c r="E41" s="6"/>
-      <c r="F41" s="6"/>
-      <c r="G41" s="6"/>
+      <c r="A41" s="3"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A42" s="4"/>
-      <c r="B42" s="5"/>
-      <c r="C42" s="6"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="6"/>
-      <c r="F42" s="6"/>
-      <c r="G42" s="6"/>
+      <c r="A42" s="3"/>
+      <c r="B42" s="6"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A43" s="4"/>
-      <c r="B43" s="5"/>
-      <c r="C43" s="6"/>
-      <c r="D43" s="6"/>
-      <c r="E43" s="6"/>
-      <c r="F43" s="6"/>
-      <c r="G43" s="6"/>
+      <c r="A43" s="3"/>
+      <c r="B43" s="6"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A44" s="4"/>
-      <c r="B44" s="5"/>
-      <c r="C44" s="6"/>
-      <c r="D44" s="6"/>
-      <c r="E44" s="6"/>
-      <c r="F44" s="6"/>
-      <c r="G44" s="6"/>
+      <c r="A44" s="3"/>
+      <c r="B44" s="6"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A45" s="4"/>
-      <c r="B45" s="5"/>
-      <c r="C45" s="6"/>
-      <c r="D45" s="6"/>
-      <c r="E45" s="6"/>
-      <c r="F45" s="6"/>
-      <c r="G45" s="6"/>
+      <c r="A45" s="3"/>
+      <c r="B45" s="6"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A46" s="4"/>
-      <c r="B46" s="5"/>
-      <c r="C46" s="6"/>
-      <c r="D46" s="6"/>
-      <c r="E46" s="6"/>
-      <c r="F46" s="6"/>
-      <c r="G46" s="6"/>
+      <c r="A46" s="3"/>
+      <c r="B46" s="6"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A47" s="4"/>
-      <c r="B47" s="5"/>
-      <c r="C47" s="6"/>
-      <c r="D47" s="6"/>
-      <c r="E47" s="6"/>
-      <c r="F47" s="6"/>
-      <c r="G47" s="6"/>
+      <c r="A47" s="3"/>
+      <c r="B47" s="6"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A48" s="4"/>
-      <c r="B48" s="5"/>
-      <c r="C48" s="6"/>
-      <c r="D48" s="6"/>
-      <c r="E48" s="6"/>
-      <c r="F48" s="6"/>
-      <c r="G48" s="6"/>
+      <c r="A48" s="3"/>
+      <c r="B48" s="6"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A49" s="4"/>
-      <c r="B49" s="5"/>
-      <c r="C49" s="6"/>
-      <c r="D49" s="6"/>
-      <c r="E49" s="6"/>
-      <c r="F49" s="6"/>
-      <c r="G49" s="6"/>
+      <c r="A49" s="3"/>
+      <c r="B49" s="6"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A50" s="4"/>
-      <c r="B50" s="5"/>
-      <c r="C50" s="6"/>
-      <c r="D50" s="6"/>
-      <c r="E50" s="6"/>
-      <c r="F50" s="6"/>
-      <c r="G50" s="6"/>
+      <c r="A50" s="3"/>
+      <c r="B50" s="6"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/excel/import invoice.xlsx
+++ b/excel/import invoice.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/fa_sai/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61AB423B-D597-A448-AE3A-135DDE0A6953}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8104DB51-5581-2F49-B11F-6C5F2452B4C5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14560" xr2:uid="{9FD7B6F2-6130-294A-869E-9040C2B0795A}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{9FD7B6F2-6130-294A-869E-9040C2B0795A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
   <si>
     <t>Invoice Number</t>
   </si>
@@ -46,6 +46,66 @@
   </si>
   <si>
     <t>Price Invoice (@1000)</t>
+  </si>
+  <si>
+    <t>JL01-8233</t>
+  </si>
+  <si>
+    <t>7173-2374-30</t>
+  </si>
+  <si>
+    <t>HIB</t>
+  </si>
+  <si>
+    <t>PBT LEVER</t>
+  </si>
+  <si>
+    <t>RM01-1888</t>
+  </si>
+  <si>
+    <t>JL01-8021</t>
+  </si>
+  <si>
+    <t>7173-2947-30</t>
+  </si>
+  <si>
+    <t>7173-2948-40</t>
+  </si>
+  <si>
+    <t>JL01-8022</t>
+  </si>
+  <si>
+    <t>7173-2373-30</t>
+  </si>
+  <si>
+    <t>RM01-1710</t>
+  </si>
+  <si>
+    <t>7173-0384-30</t>
+  </si>
+  <si>
+    <t>PP BASE</t>
+  </si>
+  <si>
+    <t>JL01-8171</t>
+  </si>
+  <si>
+    <t>7173-2328</t>
+  </si>
+  <si>
+    <t>DAT</t>
+  </si>
+  <si>
+    <t>7173-1915</t>
+  </si>
+  <si>
+    <t>YGP</t>
+  </si>
+  <si>
+    <t>7189-9116-30</t>
+  </si>
+  <si>
+    <t>98,07</t>
   </si>
 </sst>
 </file>
@@ -55,7 +115,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -69,6 +129,11 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -78,7 +143,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -86,31 +151,74 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -428,479 +536,544 @@
   <dimension ref="A1:G50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="11.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="12" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="3"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="3"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="3"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="3"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="3"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="3"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="3"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="3"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="3"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
+    <row r="2" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="13">
+        <v>43593</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="14">
+        <v>200</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="14">
+        <v>71.739999999999995</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="13">
+        <v>43593</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="14">
+        <v>17600</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="13">
+        <v>43525</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="14">
+        <v>1500</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="14">
+        <v>81.19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="13">
+        <v>43770</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="14">
+        <v>1000</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="14">
+        <v>81.19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="13">
+        <v>43709</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="14">
+        <v>600</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="14">
+        <v>81.38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="16">
+        <v>43483</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="17">
+        <v>540</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="17">
+        <v>322.11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="16">
+        <v>43483</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="17">
+        <v>5000</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="17">
+        <v>81.19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="16">
+        <v>43658</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="17">
+        <v>4000</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="17">
+        <v>81.19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="7"/>
+      <c r="B10" s="8"/>
+      <c r="E10" s="2"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="3"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="3"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="3"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="3"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="3"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="3"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="3"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-    </row>
+      <c r="C11" s="6"/>
+    </row>
+    <row r="12" spans="1:7" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="1"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="7"/>
+      <c r="B14" s="8"/>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:7" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:7" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.2"/>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="3"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
+      <c r="A18" s="1"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="3"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
+      <c r="A19" s="1"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="3"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
+      <c r="A20" s="1"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="3"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
+      <c r="A21" s="1"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="3"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
+      <c r="A22" s="1"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="3"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
+      <c r="A23" s="1"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="3"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
+      <c r="A24" s="1"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="3"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
+      <c r="A25" s="1"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="3"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
+      <c r="A26" s="1"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="3"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
+      <c r="A27" s="1"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="3"/>
-      <c r="B28" s="6"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
+      <c r="A28" s="1"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="3"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
+      <c r="A29" s="1"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="3"/>
-      <c r="B30" s="6"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
+      <c r="A30" s="1"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="3"/>
-      <c r="B31" s="6"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
+      <c r="A31" s="1"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="3"/>
-      <c r="B32" s="6"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
+      <c r="A32" s="1"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" s="3"/>
-      <c r="B33" s="6"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
+      <c r="A33" s="1"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" s="3"/>
-      <c r="B34" s="6"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
+      <c r="A34" s="1"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" s="3"/>
-      <c r="B35" s="6"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
+      <c r="A35" s="1"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="3"/>
-      <c r="B36" s="6"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
+      <c r="A36" s="1"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37" s="3"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
+      <c r="A37" s="1"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A38" s="3"/>
-      <c r="B38" s="6"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
+      <c r="A38" s="1"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39" s="3"/>
-      <c r="B39" s="6"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="4"/>
+      <c r="A39" s="1"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A40" s="3"/>
-      <c r="B40" s="6"/>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="4"/>
+      <c r="A40" s="1"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A41" s="3"/>
-      <c r="B41" s="6"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="4"/>
-      <c r="F41" s="4"/>
-      <c r="G41" s="4"/>
+      <c r="A41" s="1"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A42" s="3"/>
-      <c r="B42" s="6"/>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="4"/>
-      <c r="F42" s="4"/>
-      <c r="G42" s="4"/>
+      <c r="A42" s="1"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A43" s="3"/>
-      <c r="B43" s="6"/>
-      <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
-      <c r="E43" s="4"/>
-      <c r="F43" s="4"/>
-      <c r="G43" s="4"/>
+      <c r="A43" s="1"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A44" s="3"/>
-      <c r="B44" s="6"/>
-      <c r="C44" s="4"/>
-      <c r="D44" s="4"/>
-      <c r="E44" s="4"/>
-      <c r="F44" s="4"/>
-      <c r="G44" s="4"/>
+      <c r="A44" s="1"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A45" s="3"/>
-      <c r="B45" s="6"/>
-      <c r="C45" s="4"/>
-      <c r="D45" s="4"/>
-      <c r="E45" s="4"/>
-      <c r="F45" s="4"/>
-      <c r="G45" s="4"/>
+      <c r="A45" s="1"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A46" s="3"/>
-      <c r="B46" s="6"/>
-      <c r="C46" s="4"/>
-      <c r="D46" s="4"/>
-      <c r="E46" s="4"/>
-      <c r="F46" s="4"/>
-      <c r="G46" s="4"/>
+      <c r="A46" s="1"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A47" s="3"/>
-      <c r="B47" s="6"/>
-      <c r="C47" s="4"/>
-      <c r="D47" s="4"/>
-      <c r="E47" s="4"/>
-      <c r="F47" s="4"/>
-      <c r="G47" s="4"/>
+      <c r="A47" s="1"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A48" s="3"/>
-      <c r="B48" s="6"/>
-      <c r="C48" s="4"/>
-      <c r="D48" s="4"/>
-      <c r="E48" s="4"/>
-      <c r="F48" s="4"/>
-      <c r="G48" s="4"/>
+      <c r="A48" s="1"/>
+      <c r="B48" s="3"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A49" s="3"/>
-      <c r="B49" s="6"/>
-      <c r="C49" s="4"/>
-      <c r="D49" s="4"/>
-      <c r="E49" s="4"/>
-      <c r="F49" s="4"/>
-      <c r="G49" s="4"/>
+      <c r="A49" s="1"/>
+      <c r="B49" s="3"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A50" s="3"/>
-      <c r="B50" s="6"/>
-      <c r="C50" s="4"/>
-      <c r="D50" s="4"/>
-      <c r="E50" s="4"/>
-      <c r="F50" s="4"/>
-      <c r="G50" s="4"/>
+      <c r="A50" s="1"/>
+      <c r="B50" s="3"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/excel/import invoice.xlsx
+++ b/excel/import invoice.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/fa_sai/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8104DB51-5581-2F49-B11F-6C5F2452B4C5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8021FA1-9CCA-1840-9020-6E3655AC27CE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{9FD7B6F2-6130-294A-869E-9040C2B0795A}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="83">
   <si>
     <t>Invoice Number</t>
   </si>
@@ -106,6 +106,174 @@
   </si>
   <si>
     <t>98,07</t>
+  </si>
+  <si>
+    <t>400</t>
+  </si>
+  <si>
+    <t>7194-3042-30</t>
+  </si>
+  <si>
+    <t>FMTH</t>
+  </si>
+  <si>
+    <t>RM01-1711</t>
+  </si>
+  <si>
+    <t>7194-3323-30</t>
+  </si>
+  <si>
+    <t>270</t>
+  </si>
+  <si>
+    <t>JL01-8173</t>
+  </si>
+  <si>
+    <t>7173-1696-10</t>
+  </si>
+  <si>
+    <t>700</t>
+  </si>
+  <si>
+    <t>730</t>
+  </si>
+  <si>
+    <t>RM01-1880</t>
+  </si>
+  <si>
+    <t>PT. NANBU PLASTICS I</t>
+  </si>
+  <si>
+    <t>1000</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>7173-1919</t>
+  </si>
+  <si>
+    <t>JL03-8022</t>
+  </si>
+  <si>
+    <t>7173-2329</t>
+  </si>
+  <si>
+    <t>JL03-8023</t>
+  </si>
+  <si>
+    <t>5500</t>
+  </si>
+  <si>
+    <t>7173-2464-30</t>
+  </si>
+  <si>
+    <t>JL03-8024</t>
+  </si>
+  <si>
+    <t>PT. PIOLAX INDONESIA</t>
+  </si>
+  <si>
+    <t>600</t>
+  </si>
+  <si>
+    <t>60,1</t>
+  </si>
+  <si>
+    <t>88,7</t>
+  </si>
+  <si>
+    <t>7189-8974-30</t>
+  </si>
+  <si>
+    <t>20,9</t>
+  </si>
+  <si>
+    <t>701</t>
+  </si>
+  <si>
+    <t>7189-8974-90</t>
+  </si>
+  <si>
+    <t>ARROW ELECTRONICS AS</t>
+  </si>
+  <si>
+    <t>880</t>
+  </si>
+  <si>
+    <t>89,7</t>
+  </si>
+  <si>
+    <t>HELLERMANN TYTON</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>78,98</t>
+  </si>
+  <si>
+    <t>10100</t>
+  </si>
+  <si>
+    <t>780</t>
+  </si>
+  <si>
+    <t>JL03-8025</t>
+  </si>
+  <si>
+    <t>JL03-8026</t>
+  </si>
+  <si>
+    <t>JL03-8027</t>
+  </si>
+  <si>
+    <t>JL03-8028</t>
+  </si>
+  <si>
+    <t>7194-3003-30</t>
+  </si>
+  <si>
+    <t>7173-2783-30</t>
+  </si>
+  <si>
+    <t>7173-0417-52</t>
+  </si>
+  <si>
+    <t>7173-2330</t>
+  </si>
+  <si>
+    <t>JL03-8029</t>
+  </si>
+  <si>
+    <t>JL03-8030</t>
+  </si>
+  <si>
+    <t>JL03-8031</t>
+  </si>
+  <si>
+    <t>781</t>
+  </si>
+  <si>
+    <t>782</t>
+  </si>
+  <si>
+    <t>783</t>
+  </si>
+  <si>
+    <t>NIFCO</t>
+  </si>
+  <si>
+    <t>PT. CATURINDO AGUNG</t>
+  </si>
+  <si>
+    <t>78,99</t>
+  </si>
+  <si>
+    <t>78,100</t>
+  </si>
+  <si>
+    <t>78,101</t>
   </si>
 </sst>
 </file>
@@ -115,7 +283,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -133,6 +301,26 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Garamond"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Cilibri"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Cilibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -170,7 +358,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -181,17 +369,10 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -218,6 +399,53 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -533,369 +761,1042 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BD29480-4CCB-694E-9DE3-D08F756A8C73}">
-  <dimension ref="A1:G50"/>
+  <dimension ref="A1:AC50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="2" max="2" width="11.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" style="18"/>
+    <col min="2" max="2" width="11.33203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="10.83203125" style="18"/>
+    <col min="7" max="7" width="19.33203125" style="18" bestFit="1" customWidth="1"/>
+    <col min="8" max="28" width="10.83203125" style="18"/>
+    <col min="29" max="29" width="18.5" style="18" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="10.83203125" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:29">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
+    <row r="2" spans="1:29" s="4" customFormat="1">
+      <c r="A2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="13">
+      <c r="B2" s="10">
         <v>43593</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="14">
+      <c r="D2" s="11">
         <v>200</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="14">
+      <c r="G2" s="11">
         <v>71.739999999999995</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="9" t="s">
+    <row r="3" spans="1:29" s="4" customFormat="1">
+      <c r="A3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="13">
+      <c r="B3" s="10">
         <v>43593</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="14">
+      <c r="D3" s="11">
         <v>17600</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="G3" s="11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="9" t="s">
+    <row r="4" spans="1:29" s="4" customFormat="1">
+      <c r="A4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="13">
+      <c r="B4" s="10">
         <v>43525</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="14">
+      <c r="D4" s="11">
         <v>1500</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="14">
+      <c r="G4" s="11">
         <v>81.19</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="9" t="s">
+    <row r="5" spans="1:29" s="4" customFormat="1">
+      <c r="A5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="13">
+      <c r="B5" s="10">
         <v>43770</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D5" s="11">
         <v>1000</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="14">
+      <c r="G5" s="11">
         <v>81.19</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="9" t="s">
+    <row r="6" spans="1:29" s="4" customFormat="1">
+      <c r="A6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="13">
+      <c r="B6" s="10">
         <v>43709</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="14">
+      <c r="D6" s="11">
         <v>600</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="F6" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="14">
+      <c r="G6" s="11">
         <v>81.38</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="15" t="s">
+    <row r="7" spans="1:29" s="4" customFormat="1">
+      <c r="A7" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="16">
+      <c r="B7" s="13">
         <v>43483</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="17">
+      <c r="D7" s="14">
         <v>540</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="17" t="s">
+      <c r="F7" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="17">
+      <c r="G7" s="14">
         <v>322.11</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="15" t="s">
+    <row r="8" spans="1:29" s="4" customFormat="1">
+      <c r="A8" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="16">
+      <c r="B8" s="13">
         <v>43483</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="17">
+      <c r="D8" s="14">
         <v>5000</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="E8" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="17" t="s">
+      <c r="F8" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="17">
+      <c r="G8" s="14">
+        <v>81.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" s="4" customFormat="1">
+      <c r="A9" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="13">
+        <v>43658</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="14">
+        <v>4000</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="14">
         <v>81.19</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="16">
-        <v>43658</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="17">
-        <v>4000</v>
-      </c>
-      <c r="E9" s="14" t="s">
+    <row r="10" spans="1:29" s="4" customFormat="1">
+      <c r="A10" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="13">
+        <v>43499</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="14">
+        <v>500</v>
+      </c>
+      <c r="E10" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="14">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" s="17" customFormat="1">
+      <c r="A11" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="16">
+        <v>43564</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="20"/>
+      <c r="N11" s="20"/>
+      <c r="O11" s="20"/>
+      <c r="P11" s="20"/>
+      <c r="Q11" s="20"/>
+      <c r="R11" s="20"/>
+      <c r="S11" s="20"/>
+      <c r="T11" s="20"/>
+      <c r="U11" s="20"/>
+      <c r="V11" s="20"/>
+      <c r="W11" s="20"/>
+      <c r="X11" s="20"/>
+      <c r="Y11" s="20"/>
+      <c r="Z11" s="20"/>
+      <c r="AA11" s="20"/>
+      <c r="AB11" s="20"/>
+      <c r="AC11" s="22"/>
+    </row>
+    <row r="12" spans="1:29" s="17" customFormat="1">
+      <c r="A12" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="16">
+        <v>43748</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="20"/>
+      <c r="M12" s="20"/>
+      <c r="N12" s="20"/>
+      <c r="O12" s="20"/>
+      <c r="P12" s="20"/>
+      <c r="Q12" s="20"/>
+      <c r="R12" s="20"/>
+      <c r="S12" s="20"/>
+      <c r="T12" s="20"/>
+      <c r="U12" s="20"/>
+      <c r="V12" s="20"/>
+      <c r="W12" s="20"/>
+      <c r="X12" s="20"/>
+      <c r="Y12" s="20"/>
+      <c r="Z12" s="20"/>
+      <c r="AA12" s="20"/>
+      <c r="AB12" s="20"/>
+      <c r="AC12" s="22"/>
+    </row>
+    <row r="13" spans="1:29" s="17" customFormat="1">
+      <c r="A13" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="16">
+        <v>43627</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="20"/>
+      <c r="N13" s="20"/>
+      <c r="O13" s="20"/>
+      <c r="P13" s="20"/>
+      <c r="Q13" s="20"/>
+      <c r="R13" s="20"/>
+      <c r="S13" s="20"/>
+      <c r="T13" s="20"/>
+      <c r="U13" s="20"/>
+      <c r="V13" s="20"/>
+      <c r="W13" s="20"/>
+      <c r="X13" s="20"/>
+      <c r="Y13" s="20"/>
+      <c r="Z13" s="20"/>
+      <c r="AA13" s="20"/>
+      <c r="AB13" s="20"/>
+      <c r="AC13" s="22"/>
+    </row>
+    <row r="14" spans="1:29" s="19" customFormat="1">
+      <c r="A14" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="16">
+        <v>43728</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="17" t="s">
+      <c r="F14" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="G9" s="17">
-        <v>81.19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="7"/>
-      <c r="B10" s="8"/>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C11" s="6"/>
-    </row>
-    <row r="12" spans="1:7" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="1"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-    </row>
-    <row r="14" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="7"/>
-      <c r="B14" s="8"/>
-      <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="1:7" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="1:7" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.2"/>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="1"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="1"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="1"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="1"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="1"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="1"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="1"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="1"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="1"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="1"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="1"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="1"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="1"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G14" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="20"/>
+      <c r="N14" s="20"/>
+      <c r="O14" s="20"/>
+      <c r="P14" s="20"/>
+      <c r="Q14" s="20"/>
+      <c r="R14" s="20"/>
+      <c r="S14" s="20"/>
+      <c r="T14" s="20"/>
+      <c r="U14" s="20"/>
+      <c r="V14" s="20"/>
+      <c r="W14" s="20"/>
+      <c r="X14" s="20"/>
+      <c r="Y14" s="20"/>
+      <c r="Z14" s="20"/>
+      <c r="AA14" s="20"/>
+      <c r="AB14" s="20"/>
+      <c r="AC14" s="22"/>
+    </row>
+    <row r="15" spans="1:29" s="19" customFormat="1">
+      <c r="A15" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="16">
+        <v>43486</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20"/>
+      <c r="L15" s="20"/>
+      <c r="M15" s="20"/>
+      <c r="N15" s="20"/>
+      <c r="O15" s="20"/>
+      <c r="P15" s="20"/>
+      <c r="Q15" s="20"/>
+      <c r="R15" s="20"/>
+      <c r="S15" s="20"/>
+      <c r="T15" s="20"/>
+      <c r="U15" s="20"/>
+      <c r="V15" s="20"/>
+      <c r="W15" s="20"/>
+      <c r="X15" s="20"/>
+      <c r="Y15" s="20"/>
+      <c r="Z15" s="20"/>
+      <c r="AA15" s="20"/>
+      <c r="AB15" s="20"/>
+      <c r="AC15" s="22"/>
+    </row>
+    <row r="16" spans="1:29" s="19" customFormat="1">
+      <c r="A16" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16" s="16">
+        <v>43458</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
+      <c r="L16" s="20"/>
+      <c r="M16" s="20"/>
+      <c r="N16" s="20"/>
+      <c r="O16" s="20"/>
+      <c r="P16" s="20"/>
+      <c r="Q16" s="20"/>
+      <c r="R16" s="20"/>
+      <c r="S16" s="20"/>
+      <c r="T16" s="20"/>
+      <c r="U16" s="20"/>
+      <c r="V16" s="20"/>
+      <c r="W16" s="20"/>
+      <c r="X16" s="20"/>
+      <c r="Y16" s="20"/>
+      <c r="Z16" s="20"/>
+      <c r="AA16" s="20"/>
+      <c r="AB16" s="20"/>
+      <c r="AC16" s="22"/>
+    </row>
+    <row r="17" spans="1:29" s="19" customFormat="1">
+      <c r="A17" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B17" s="16">
+        <v>43449</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E17" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="20"/>
+      <c r="L17" s="20"/>
+      <c r="M17" s="20"/>
+      <c r="N17" s="20"/>
+      <c r="O17" s="20"/>
+      <c r="P17" s="20"/>
+      <c r="Q17" s="20"/>
+      <c r="R17" s="20"/>
+      <c r="S17" s="20"/>
+      <c r="T17" s="20"/>
+      <c r="U17" s="20"/>
+      <c r="V17" s="20"/>
+      <c r="W17" s="20"/>
+      <c r="X17" s="20"/>
+      <c r="Y17" s="20"/>
+      <c r="Z17" s="20"/>
+      <c r="AA17" s="20"/>
+      <c r="AB17" s="20"/>
+      <c r="AC17" s="22"/>
+    </row>
+    <row r="18" spans="1:29">
+      <c r="A18" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B18" s="10">
+        <v>43597</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="E18" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="F18" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="H18" s="23"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="23"/>
+      <c r="L18" s="23"/>
+      <c r="M18" s="23"/>
+      <c r="N18" s="23"/>
+      <c r="O18" s="23"/>
+      <c r="P18" s="23"/>
+      <c r="Q18" s="23"/>
+      <c r="R18" s="23"/>
+      <c r="S18" s="23"/>
+      <c r="T18" s="23"/>
+      <c r="U18" s="23"/>
+      <c r="V18" s="23"/>
+      <c r="W18" s="23"/>
+      <c r="X18" s="23"/>
+      <c r="Y18" s="23"/>
+      <c r="Z18" s="23"/>
+      <c r="AA18" s="23"/>
+      <c r="AB18" s="23"/>
+      <c r="AC18" s="23"/>
+    </row>
+    <row r="19" spans="1:29">
+      <c r="A19" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B19" s="28">
+        <v>43601</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="E19" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="F19" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="H19" s="23"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="23"/>
+      <c r="K19" s="23"/>
+      <c r="L19" s="23"/>
+      <c r="M19" s="23"/>
+      <c r="N19" s="23"/>
+      <c r="O19" s="23"/>
+      <c r="P19" s="23"/>
+      <c r="Q19" s="23"/>
+      <c r="R19" s="23"/>
+      <c r="S19" s="23"/>
+      <c r="T19" s="23"/>
+      <c r="U19" s="23"/>
+      <c r="V19" s="23"/>
+      <c r="W19" s="23"/>
+      <c r="X19" s="23"/>
+      <c r="Y19" s="23"/>
+      <c r="Z19" s="23"/>
+      <c r="AA19" s="23"/>
+      <c r="AB19" s="23"/>
+      <c r="AC19" s="23"/>
+    </row>
+    <row r="20" spans="1:29">
+      <c r="A20" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B20" s="10">
+        <v>43694</v>
+      </c>
+      <c r="C20" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="E20" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="F20" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="H20" s="23"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="23"/>
+      <c r="K20" s="23"/>
+      <c r="L20" s="23"/>
+      <c r="M20" s="23"/>
+      <c r="N20" s="23"/>
+      <c r="O20" s="23"/>
+      <c r="P20" s="23"/>
+      <c r="Q20" s="23"/>
+      <c r="R20" s="23"/>
+      <c r="S20" s="23"/>
+      <c r="T20" s="23"/>
+      <c r="U20" s="23"/>
+      <c r="V20" s="23"/>
+      <c r="W20" s="23"/>
+      <c r="X20" s="23"/>
+      <c r="Y20" s="23"/>
+      <c r="Z20" s="23"/>
+      <c r="AA20" s="23"/>
+      <c r="AB20" s="23"/>
+      <c r="AC20" s="23"/>
+    </row>
+    <row r="21" spans="1:29">
+      <c r="A21" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B21" s="10">
+        <v>43736</v>
+      </c>
+      <c r="C21" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="E21" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="F21" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="H21" s="23"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="23"/>
+      <c r="K21" s="24"/>
+      <c r="L21" s="23"/>
+      <c r="M21" s="23"/>
+      <c r="N21" s="23"/>
+      <c r="O21" s="23"/>
+      <c r="P21" s="23"/>
+      <c r="Q21" s="23"/>
+      <c r="R21" s="23"/>
+      <c r="S21" s="23"/>
+      <c r="T21" s="23"/>
+      <c r="U21" s="23"/>
+      <c r="V21" s="23"/>
+      <c r="W21" s="23"/>
+      <c r="X21" s="23"/>
+      <c r="Y21" s="23"/>
+      <c r="Z21" s="23"/>
+      <c r="AA21" s="23"/>
+      <c r="AB21" s="23"/>
+      <c r="AC21" s="23"/>
+    </row>
+    <row r="22" spans="1:29">
+      <c r="A22" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B22" s="10">
+        <v>43788</v>
+      </c>
+      <c r="C22" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="E22" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="F22" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="G22" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="5"/>
+      <c r="Q22" s="5"/>
+      <c r="R22" s="5"/>
+      <c r="S22" s="5"/>
+      <c r="T22" s="5"/>
+      <c r="U22" s="5"/>
+      <c r="V22" s="5"/>
+      <c r="W22" s="5"/>
+      <c r="X22" s="5"/>
+      <c r="Y22" s="5"/>
+      <c r="Z22" s="5"/>
+      <c r="AA22" s="5"/>
+      <c r="AB22" s="5"/>
+      <c r="AC22" s="25"/>
+    </row>
+    <row r="23" spans="1:29">
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="5"/>
+      <c r="Q23" s="5"/>
+      <c r="R23" s="5"/>
+      <c r="S23" s="5"/>
+      <c r="T23" s="5"/>
+      <c r="U23" s="5"/>
+      <c r="V23" s="5"/>
+      <c r="W23" s="5"/>
+      <c r="X23" s="5"/>
+      <c r="Y23" s="5"/>
+      <c r="Z23" s="5"/>
+      <c r="AA23" s="5"/>
+      <c r="AB23" s="5"/>
+      <c r="AC23" s="25"/>
+    </row>
+    <row r="24" spans="1:29">
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="5"/>
+      <c r="Q24" s="5"/>
+      <c r="R24" s="5"/>
+      <c r="S24" s="5"/>
+      <c r="T24" s="5"/>
+      <c r="U24" s="5"/>
+      <c r="V24" s="5"/>
+      <c r="W24" s="5"/>
+      <c r="X24" s="5"/>
+      <c r="Y24" s="5"/>
+      <c r="Z24" s="5"/>
+      <c r="AA24" s="5"/>
+      <c r="AB24" s="5"/>
+      <c r="AC24" s="25"/>
+    </row>
+    <row r="25" spans="1:29" s="25" customFormat="1">
+      <c r="A25" s="31"/>
+      <c r="B25" s="31"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="31"/>
+      <c r="J25" s="31"/>
+      <c r="K25" s="31"/>
+      <c r="L25" s="31"/>
+      <c r="M25" s="31"/>
+      <c r="N25" s="31"/>
+      <c r="O25" s="31"/>
+      <c r="P25" s="31"/>
+      <c r="Q25" s="31"/>
+      <c r="R25" s="31"/>
+      <c r="S25" s="31"/>
+      <c r="T25" s="31"/>
+      <c r="U25" s="31"/>
+      <c r="V25" s="31"/>
+      <c r="W25" s="31"/>
+      <c r="X25" s="31"/>
+      <c r="Y25" s="31"/>
+      <c r="Z25" s="31"/>
+      <c r="AA25" s="31"/>
+      <c r="AB25" s="31"/>
+      <c r="AC25" s="32"/>
+    </row>
+    <row r="26" spans="1:29" s="25" customFormat="1">
+      <c r="A26" s="33"/>
+      <c r="B26" s="31"/>
+      <c r="C26" s="31"/>
+      <c r="D26" s="31"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="31"/>
+      <c r="G26" s="31"/>
+      <c r="H26" s="31"/>
+      <c r="I26" s="31"/>
+      <c r="J26" s="31"/>
+      <c r="K26" s="31"/>
+      <c r="L26" s="31"/>
+      <c r="M26" s="31"/>
+      <c r="N26" s="31"/>
+      <c r="O26" s="31"/>
+      <c r="P26" s="31"/>
+      <c r="Q26" s="31"/>
+      <c r="R26" s="31"/>
+      <c r="S26" s="31"/>
+      <c r="T26" s="31"/>
+      <c r="U26" s="31"/>
+      <c r="V26" s="31"/>
+      <c r="W26" s="31"/>
+      <c r="X26" s="31"/>
+      <c r="Y26" s="31"/>
+      <c r="Z26" s="31"/>
+      <c r="AA26" s="31"/>
+      <c r="AB26" s="31"/>
+      <c r="AC26" s="32"/>
+    </row>
+    <row r="27" spans="1:29" s="23" customFormat="1">
+      <c r="A27" s="31"/>
+      <c r="B27" s="31"/>
+      <c r="C27" s="31"/>
+      <c r="D27" s="31"/>
+      <c r="E27" s="31"/>
+      <c r="F27" s="31"/>
+      <c r="G27" s="31"/>
+      <c r="H27" s="31"/>
+      <c r="I27" s="31"/>
+      <c r="J27" s="31"/>
+      <c r="K27" s="31"/>
+      <c r="L27" s="31"/>
+      <c r="M27" s="31"/>
+      <c r="N27" s="31"/>
+      <c r="O27" s="31"/>
+      <c r="P27" s="31"/>
+      <c r="Q27" s="31"/>
+      <c r="R27" s="31"/>
+      <c r="S27" s="31"/>
+      <c r="T27" s="31"/>
+      <c r="U27" s="31"/>
+      <c r="V27" s="31"/>
+      <c r="W27" s="31"/>
+      <c r="X27" s="31"/>
+      <c r="Y27" s="31"/>
+      <c r="Z27" s="31"/>
+      <c r="AA27" s="31"/>
+      <c r="AB27" s="31"/>
+      <c r="AC27" s="32"/>
+    </row>
+    <row r="28" spans="1:29" s="23" customFormat="1">
+      <c r="A28" s="31"/>
+      <c r="B28" s="31"/>
+      <c r="C28" s="31"/>
+      <c r="D28" s="31"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="31"/>
+      <c r="G28" s="31"/>
+      <c r="H28" s="31"/>
+      <c r="I28" s="31"/>
+      <c r="J28" s="31"/>
+      <c r="K28" s="31"/>
+      <c r="L28" s="31"/>
+      <c r="M28" s="31"/>
+      <c r="N28" s="31"/>
+      <c r="O28" s="31"/>
+      <c r="P28" s="31"/>
+      <c r="Q28" s="31"/>
+      <c r="R28" s="31"/>
+      <c r="S28" s="31"/>
+      <c r="T28" s="31"/>
+      <c r="U28" s="31"/>
+      <c r="V28" s="31"/>
+      <c r="W28" s="31"/>
+      <c r="X28" s="31"/>
+      <c r="Y28" s="31"/>
+      <c r="Z28" s="31"/>
+      <c r="AA28" s="31"/>
+      <c r="AB28" s="31"/>
+      <c r="AC28" s="32"/>
+    </row>
+    <row r="29" spans="1:29" s="23" customFormat="1">
+      <c r="A29" s="31"/>
+      <c r="B29" s="31"/>
+      <c r="C29" s="31"/>
+      <c r="D29" s="31"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="31"/>
+      <c r="G29" s="31"/>
+      <c r="H29" s="31"/>
+      <c r="I29" s="31"/>
+      <c r="J29" s="31"/>
+      <c r="K29" s="31"/>
+      <c r="L29" s="31"/>
+      <c r="M29" s="31"/>
+      <c r="N29" s="31"/>
+      <c r="O29" s="31"/>
+      <c r="P29" s="31"/>
+      <c r="Q29" s="31"/>
+      <c r="R29" s="31"/>
+      <c r="S29" s="31"/>
+      <c r="T29" s="31"/>
+      <c r="U29" s="31"/>
+      <c r="V29" s="31"/>
+      <c r="W29" s="31"/>
+      <c r="X29" s="31"/>
+      <c r="Y29" s="31"/>
+      <c r="Z29" s="31"/>
+      <c r="AA29" s="31"/>
+      <c r="AB29" s="31"/>
+      <c r="AC29" s="32"/>
+    </row>
+    <row r="30" spans="1:29" s="23" customFormat="1">
+      <c r="A30" s="31"/>
+      <c r="B30" s="31"/>
+      <c r="C30" s="31"/>
+      <c r="D30" s="31"/>
+      <c r="E30" s="31"/>
+      <c r="F30" s="31"/>
+      <c r="G30" s="31"/>
+      <c r="H30" s="31"/>
+      <c r="I30" s="31"/>
+      <c r="J30" s="31"/>
+      <c r="K30" s="31"/>
+      <c r="L30" s="31"/>
+      <c r="M30" s="31"/>
+      <c r="N30" s="31"/>
+      <c r="O30" s="31"/>
+      <c r="P30" s="31"/>
+      <c r="Q30" s="31"/>
+      <c r="R30" s="31"/>
+      <c r="S30" s="31"/>
+      <c r="T30" s="31"/>
+      <c r="U30" s="31"/>
+      <c r="V30" s="31"/>
+      <c r="W30" s="31"/>
+      <c r="X30" s="31"/>
+      <c r="Y30" s="31"/>
+      <c r="Z30" s="31"/>
+      <c r="AA30" s="31"/>
+      <c r="AB30" s="31"/>
+      <c r="AC30" s="32"/>
+    </row>
+    <row r="31" spans="1:29">
       <c r="A31" s="1"/>
       <c r="B31" s="3"/>
       <c r="C31" s="2"/>
@@ -904,7 +1805,7 @@
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:29">
       <c r="A32" s="1"/>
       <c r="B32" s="3"/>
       <c r="C32" s="2"/>
@@ -913,7 +1814,7 @@
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7">
       <c r="A33" s="1"/>
       <c r="B33" s="3"/>
       <c r="C33" s="2"/>
@@ -922,7 +1823,7 @@
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7">
       <c r="A34" s="1"/>
       <c r="B34" s="3"/>
       <c r="C34" s="2"/>
@@ -931,7 +1832,7 @@
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7">
       <c r="A35" s="1"/>
       <c r="B35" s="3"/>
       <c r="C35" s="2"/>
@@ -940,7 +1841,7 @@
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7">
       <c r="A36" s="1"/>
       <c r="B36" s="3"/>
       <c r="C36" s="2"/>
@@ -949,7 +1850,7 @@
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7">
       <c r="A37" s="1"/>
       <c r="B37" s="3"/>
       <c r="C37" s="2"/>
@@ -958,7 +1859,7 @@
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7">
       <c r="A38" s="1"/>
       <c r="B38" s="3"/>
       <c r="C38" s="2"/>
@@ -967,7 +1868,7 @@
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7">
       <c r="A39" s="1"/>
       <c r="B39" s="3"/>
       <c r="C39" s="2"/>
@@ -976,7 +1877,7 @@
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7">
       <c r="A40" s="1"/>
       <c r="B40" s="3"/>
       <c r="C40" s="2"/>
@@ -985,7 +1886,7 @@
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7">
       <c r="A41" s="1"/>
       <c r="B41" s="3"/>
       <c r="C41" s="2"/>
@@ -994,7 +1895,7 @@
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7">
       <c r="A42" s="1"/>
       <c r="B42" s="3"/>
       <c r="C42" s="2"/>
@@ -1003,7 +1904,7 @@
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7">
       <c r="A43" s="1"/>
       <c r="B43" s="3"/>
       <c r="C43" s="2"/>
@@ -1012,7 +1913,7 @@
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7">
       <c r="A44" s="1"/>
       <c r="B44" s="3"/>
       <c r="C44" s="2"/>
@@ -1021,7 +1922,7 @@
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7">
       <c r="A45" s="1"/>
       <c r="B45" s="3"/>
       <c r="C45" s="2"/>
@@ -1030,7 +1931,7 @@
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7">
       <c r="A46" s="1"/>
       <c r="B46" s="3"/>
       <c r="C46" s="2"/>
@@ -1039,7 +1940,7 @@
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7">
       <c r="A47" s="1"/>
       <c r="B47" s="3"/>
       <c r="C47" s="2"/>
@@ -1048,7 +1949,7 @@
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7">
       <c r="A48" s="1"/>
       <c r="B48" s="3"/>
       <c r="C48" s="2"/>
@@ -1057,7 +1958,7 @@
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7">
       <c r="A49" s="1"/>
       <c r="B49" s="3"/>
       <c r="C49" s="2"/>
@@ -1066,7 +1967,7 @@
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7">
       <c r="A50" s="1"/>
       <c r="B50" s="3"/>
       <c r="C50" s="2"/>

--- a/excel/import invoice.xlsx
+++ b/excel/import invoice.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/fa_sai/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8021FA1-9CCA-1840-9020-6E3655AC27CE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2FDD92A-A08F-2B49-BBB9-EE825DFD9E48}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{9FD7B6F2-6130-294A-869E-9040C2B0795A}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14560" xr2:uid="{9FD7B6F2-6130-294A-869E-9040C2B0795A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -764,7 +764,7 @@
   <dimension ref="A1:AC50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -945,7 +945,7 @@
         <v>17</v>
       </c>
       <c r="B8" s="13">
-        <v>43483</v>
+        <v>43787</v>
       </c>
       <c r="C8" s="14" t="s">
         <v>14</v>

--- a/excel/import invoice.xlsx
+++ b/excel/import invoice.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/fa_sai/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2FDD92A-A08F-2B49-BBB9-EE825DFD9E48}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6069B6CE-09F4-3E4A-862C-E3C2B31FA5FF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14560" xr2:uid="{9FD7B6F2-6130-294A-869E-9040C2B0795A}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="68">
   <si>
     <t>Invoice Number</t>
   </si>
@@ -60,36 +60,21 @@
     <t>PBT LEVER</t>
   </si>
   <si>
-    <t>RM01-1888</t>
-  </si>
-  <si>
-    <t>JL01-8021</t>
-  </si>
-  <si>
     <t>7173-2947-30</t>
   </si>
   <si>
     <t>7173-2948-40</t>
   </si>
   <si>
-    <t>JL01-8022</t>
-  </si>
-  <si>
     <t>7173-2373-30</t>
   </si>
   <si>
-    <t>RM01-1710</t>
-  </si>
-  <si>
     <t>7173-0384-30</t>
   </si>
   <si>
     <t>PP BASE</t>
   </si>
   <si>
-    <t>JL01-8171</t>
-  </si>
-  <si>
     <t>7173-2328</t>
   </si>
   <si>
@@ -117,18 +102,12 @@
     <t>FMTH</t>
   </si>
   <si>
-    <t>RM01-1711</t>
-  </si>
-  <si>
     <t>7194-3323-30</t>
   </si>
   <si>
     <t>270</t>
   </si>
   <si>
-    <t>JL01-8173</t>
-  </si>
-  <si>
     <t>7173-1696-10</t>
   </si>
   <si>
@@ -138,9 +117,6 @@
     <t>730</t>
   </si>
   <si>
-    <t>RM01-1880</t>
-  </si>
-  <si>
     <t>PT. NANBU PLASTICS I</t>
   </si>
   <si>
@@ -153,15 +129,9 @@
     <t>7173-1919</t>
   </si>
   <si>
-    <t>JL03-8022</t>
-  </si>
-  <si>
     <t>7173-2329</t>
   </si>
   <si>
-    <t>JL03-8023</t>
-  </si>
-  <si>
     <t>5500</t>
   </si>
   <si>
@@ -219,18 +189,6 @@
     <t>780</t>
   </si>
   <si>
-    <t>JL03-8025</t>
-  </si>
-  <si>
-    <t>JL03-8026</t>
-  </si>
-  <si>
-    <t>JL03-8027</t>
-  </si>
-  <si>
-    <t>JL03-8028</t>
-  </si>
-  <si>
     <t>7194-3003-30</t>
   </si>
   <si>
@@ -243,15 +201,9 @@
     <t>7173-2330</t>
   </si>
   <si>
-    <t>JL03-8029</t>
-  </si>
-  <si>
     <t>JL03-8030</t>
   </si>
   <si>
-    <t>JL03-8031</t>
-  </si>
-  <si>
     <t>781</t>
   </si>
   <si>
@@ -274,6 +226,9 @@
   </si>
   <si>
     <t>78,101</t>
+  </si>
+  <si>
+    <t>JL01-8242</t>
   </si>
 </sst>
 </file>
@@ -358,7 +313,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -389,9 +344,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -764,19 +716,19 @@
   <dimension ref="A1:AC50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="18"/>
-    <col min="2" max="2" width="11.33203125" style="21" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" style="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="10.83203125" style="18"/>
-    <col min="7" max="7" width="19.33203125" style="18" bestFit="1" customWidth="1"/>
-    <col min="8" max="28" width="10.83203125" style="18"/>
-    <col min="29" max="29" width="18.5" style="18" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="10.83203125" style="18"/>
+    <col min="1" max="1" width="10.83203125" style="17"/>
+    <col min="2" max="2" width="11.33203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" style="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="10.83203125" style="17"/>
+    <col min="7" max="7" width="19.33203125" style="17" bestFit="1" customWidth="1"/>
+    <col min="8" max="28" width="10.83203125" style="17"/>
+    <col min="29" max="29" width="18.5" style="17" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="10.83203125" style="17"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29">
@@ -827,36 +779,36 @@
     </row>
     <row r="3" spans="1:29" s="4" customFormat="1">
       <c r="A3" s="6" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B3" s="10">
         <v>43593</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D3" s="11">
         <v>17600</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F3" s="11" t="s">
         <v>10</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:29" s="4" customFormat="1">
       <c r="A4" s="6" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B4" s="10">
         <v>43525</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D4" s="11">
         <v>1500</v>
@@ -873,19 +825,19 @@
     </row>
     <row r="5" spans="1:29" s="4" customFormat="1">
       <c r="A5" s="6" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B5" s="10">
         <v>43770</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D5" s="11">
         <v>1000</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F5" s="11" t="s">
         <v>10</v>
@@ -896,13 +848,13 @@
     </row>
     <row r="6" spans="1:29" s="4" customFormat="1">
       <c r="A6" s="6" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B6" s="10">
         <v>43709</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D6" s="11">
         <v>600</v>
@@ -918,613 +870,613 @@
       </c>
     </row>
     <row r="7" spans="1:29" s="4" customFormat="1">
-      <c r="A7" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="13">
+      <c r="A7" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="12">
         <v>43483</v>
       </c>
-      <c r="C7" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="14">
+      <c r="C7" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="13">
         <v>540</v>
       </c>
       <c r="E7" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" s="14">
+      <c r="F7" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="13">
         <v>322.11</v>
       </c>
     </row>
     <row r="8" spans="1:29" s="4" customFormat="1">
-      <c r="A8" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="13">
+      <c r="A8" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="12">
         <v>43787</v>
       </c>
-      <c r="C8" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="14">
+      <c r="C8" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="13">
         <v>5000</v>
       </c>
       <c r="E8" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="14" t="s">
+      <c r="F8" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="14">
+      <c r="G8" s="13">
         <v>81.2</v>
       </c>
     </row>
     <row r="9" spans="1:29" s="4" customFormat="1">
-      <c r="A9" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="13">
+      <c r="A9" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="12">
         <v>43658</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="14">
+        <v>16</v>
+      </c>
+      <c r="D9" s="13">
         <v>4000</v>
       </c>
       <c r="E9" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="13">
+        <v>81.19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" s="4" customFormat="1">
+      <c r="A10" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="12">
+        <v>43499</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="13">
+        <v>500</v>
+      </c>
+      <c r="E10" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="13">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" s="16" customFormat="1">
+      <c r="A11" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B11" s="15">
+        <v>43564</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="14" t="s">
+      <c r="E11" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="G9" s="14">
-        <v>81.19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:29" s="4" customFormat="1">
-      <c r="A10" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" s="13">
-        <v>43499</v>
-      </c>
-      <c r="C10" s="6" t="s">
+      <c r="G11" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="19"/>
+      <c r="N11" s="19"/>
+      <c r="O11" s="19"/>
+      <c r="P11" s="19"/>
+      <c r="Q11" s="19"/>
+      <c r="R11" s="19"/>
+      <c r="S11" s="19"/>
+      <c r="T11" s="19"/>
+      <c r="U11" s="19"/>
+      <c r="V11" s="19"/>
+      <c r="W11" s="19"/>
+      <c r="X11" s="19"/>
+      <c r="Y11" s="19"/>
+      <c r="Z11" s="19"/>
+      <c r="AA11" s="19"/>
+      <c r="AB11" s="19"/>
+      <c r="AC11" s="21"/>
+    </row>
+    <row r="12" spans="1:29" s="16" customFormat="1">
+      <c r="A12" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B12" s="15">
+        <v>43748</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="6" t="s">
         <v>28</v>
-      </c>
-      <c r="D10" s="14">
-        <v>500</v>
-      </c>
-      <c r="E10" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="F10" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10" s="14">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="11" spans="1:29" s="17" customFormat="1">
-      <c r="A11" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" s="16">
-        <v>43564</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="F11" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H11" s="20"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="20"/>
-      <c r="K11" s="20"/>
-      <c r="L11" s="20"/>
-      <c r="M11" s="20"/>
-      <c r="N11" s="20"/>
-      <c r="O11" s="20"/>
-      <c r="P11" s="20"/>
-      <c r="Q11" s="20"/>
-      <c r="R11" s="20"/>
-      <c r="S11" s="20"/>
-      <c r="T11" s="20"/>
-      <c r="U11" s="20"/>
-      <c r="V11" s="20"/>
-      <c r="W11" s="20"/>
-      <c r="X11" s="20"/>
-      <c r="Y11" s="20"/>
-      <c r="Z11" s="20"/>
-      <c r="AA11" s="20"/>
-      <c r="AB11" s="20"/>
-      <c r="AC11" s="22"/>
-    </row>
-    <row r="12" spans="1:29" s="17" customFormat="1">
-      <c r="A12" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B12" s="16">
-        <v>43748</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>35</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="14" t="s">
+      <c r="F12" s="13" t="s">
         <v>10</v>
       </c>
       <c r="G12" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="19"/>
+      <c r="N12" s="19"/>
+      <c r="O12" s="19"/>
+      <c r="P12" s="19"/>
+      <c r="Q12" s="19"/>
+      <c r="R12" s="19"/>
+      <c r="S12" s="19"/>
+      <c r="T12" s="19"/>
+      <c r="U12" s="19"/>
+      <c r="V12" s="19"/>
+      <c r="W12" s="19"/>
+      <c r="X12" s="19"/>
+      <c r="Y12" s="19"/>
+      <c r="Z12" s="19"/>
+      <c r="AA12" s="19"/>
+      <c r="AB12" s="19"/>
+      <c r="AC12" s="21"/>
+    </row>
+    <row r="13" spans="1:29" s="16" customFormat="1">
+      <c r="A13" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B13" s="15">
+        <v>43627</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="19"/>
+      <c r="N13" s="19"/>
+      <c r="O13" s="19"/>
+      <c r="P13" s="19"/>
+      <c r="Q13" s="19"/>
+      <c r="R13" s="19"/>
+      <c r="S13" s="19"/>
+      <c r="T13" s="19"/>
+      <c r="U13" s="19"/>
+      <c r="V13" s="19"/>
+      <c r="W13" s="19"/>
+      <c r="X13" s="19"/>
+      <c r="Y13" s="19"/>
+      <c r="Z13" s="19"/>
+      <c r="AA13" s="19"/>
+      <c r="AB13" s="19"/>
+      <c r="AC13" s="21"/>
+    </row>
+    <row r="14" spans="1:29" s="18" customFormat="1">
+      <c r="A14" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B14" s="15">
+        <v>43728</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="19"/>
+      <c r="M14" s="19"/>
+      <c r="N14" s="19"/>
+      <c r="O14" s="19"/>
+      <c r="P14" s="19"/>
+      <c r="Q14" s="19"/>
+      <c r="R14" s="19"/>
+      <c r="S14" s="19"/>
+      <c r="T14" s="19"/>
+      <c r="U14" s="19"/>
+      <c r="V14" s="19"/>
+      <c r="W14" s="19"/>
+      <c r="X14" s="19"/>
+      <c r="Y14" s="19"/>
+      <c r="Z14" s="19"/>
+      <c r="AA14" s="19"/>
+      <c r="AB14" s="19"/>
+      <c r="AC14" s="21"/>
+    </row>
+    <row r="15" spans="1:29" s="18" customFormat="1">
+      <c r="A15" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="15">
+        <v>43486</v>
+      </c>
+      <c r="C15" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="H12" s="20"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="20"/>
-      <c r="K12" s="20"/>
-      <c r="L12" s="20"/>
-      <c r="M12" s="20"/>
-      <c r="N12" s="20"/>
-      <c r="O12" s="20"/>
-      <c r="P12" s="20"/>
-      <c r="Q12" s="20"/>
-      <c r="R12" s="20"/>
-      <c r="S12" s="20"/>
-      <c r="T12" s="20"/>
-      <c r="U12" s="20"/>
-      <c r="V12" s="20"/>
-      <c r="W12" s="20"/>
-      <c r="X12" s="20"/>
-      <c r="Y12" s="20"/>
-      <c r="Z12" s="20"/>
-      <c r="AA12" s="20"/>
-      <c r="AB12" s="20"/>
-      <c r="AC12" s="22"/>
-    </row>
-    <row r="13" spans="1:29" s="17" customFormat="1">
-      <c r="A13" s="6" t="s">
+      <c r="D15" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="19"/>
+      <c r="M15" s="19"/>
+      <c r="N15" s="19"/>
+      <c r="O15" s="19"/>
+      <c r="P15" s="19"/>
+      <c r="Q15" s="19"/>
+      <c r="R15" s="19"/>
+      <c r="S15" s="19"/>
+      <c r="T15" s="19"/>
+      <c r="U15" s="19"/>
+      <c r="V15" s="19"/>
+      <c r="W15" s="19"/>
+      <c r="X15" s="19"/>
+      <c r="Y15" s="19"/>
+      <c r="Z15" s="19"/>
+      <c r="AA15" s="19"/>
+      <c r="AB15" s="19"/>
+      <c r="AC15" s="21"/>
+    </row>
+    <row r="16" spans="1:29" s="18" customFormat="1">
+      <c r="A16" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="15">
+        <v>43458</v>
+      </c>
+      <c r="C16" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="B13" s="16">
-        <v>43627</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E13" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="F13" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="H13" s="20"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="20"/>
-      <c r="K13" s="20"/>
-      <c r="L13" s="20"/>
-      <c r="M13" s="20"/>
-      <c r="N13" s="20"/>
-      <c r="O13" s="20"/>
-      <c r="P13" s="20"/>
-      <c r="Q13" s="20"/>
-      <c r="R13" s="20"/>
-      <c r="S13" s="20"/>
-      <c r="T13" s="20"/>
-      <c r="U13" s="20"/>
-      <c r="V13" s="20"/>
-      <c r="W13" s="20"/>
-      <c r="X13" s="20"/>
-      <c r="Y13" s="20"/>
-      <c r="Z13" s="20"/>
-      <c r="AA13" s="20"/>
-      <c r="AB13" s="20"/>
-      <c r="AC13" s="22"/>
-    </row>
-    <row r="14" spans="1:29" s="19" customFormat="1">
-      <c r="A14" s="6" t="s">
+      <c r="D16" s="6" t="s">
         <v>44</v>
-      </c>
-      <c r="B14" s="16">
-        <v>43728</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="E14" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="F14" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="H14" s="20"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="20"/>
-      <c r="L14" s="20"/>
-      <c r="M14" s="20"/>
-      <c r="N14" s="20"/>
-      <c r="O14" s="20"/>
-      <c r="P14" s="20"/>
-      <c r="Q14" s="20"/>
-      <c r="R14" s="20"/>
-      <c r="S14" s="20"/>
-      <c r="T14" s="20"/>
-      <c r="U14" s="20"/>
-      <c r="V14" s="20"/>
-      <c r="W14" s="20"/>
-      <c r="X14" s="20"/>
-      <c r="Y14" s="20"/>
-      <c r="Z14" s="20"/>
-      <c r="AA14" s="20"/>
-      <c r="AB14" s="20"/>
-      <c r="AC14" s="22"/>
-    </row>
-    <row r="15" spans="1:29" s="19" customFormat="1">
-      <c r="A15" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B15" s="16">
-        <v>43486</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="E15" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="F15" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="H15" s="20"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="20"/>
-      <c r="K15" s="20"/>
-      <c r="L15" s="20"/>
-      <c r="M15" s="20"/>
-      <c r="N15" s="20"/>
-      <c r="O15" s="20"/>
-      <c r="P15" s="20"/>
-      <c r="Q15" s="20"/>
-      <c r="R15" s="20"/>
-      <c r="S15" s="20"/>
-      <c r="T15" s="20"/>
-      <c r="U15" s="20"/>
-      <c r="V15" s="20"/>
-      <c r="W15" s="20"/>
-      <c r="X15" s="20"/>
-      <c r="Y15" s="20"/>
-      <c r="Z15" s="20"/>
-      <c r="AA15" s="20"/>
-      <c r="AB15" s="20"/>
-      <c r="AC15" s="22"/>
-    </row>
-    <row r="16" spans="1:29" s="19" customFormat="1">
-      <c r="A16" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="B16" s="16">
-        <v>43458</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>54</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F16" s="14" t="s">
-        <v>19</v>
+      <c r="F16" s="13" t="s">
+        <v>15</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="20"/>
-      <c r="K16" s="20"/>
-      <c r="L16" s="20"/>
-      <c r="M16" s="20"/>
-      <c r="N16" s="20"/>
-      <c r="O16" s="20"/>
-      <c r="P16" s="20"/>
-      <c r="Q16" s="20"/>
-      <c r="R16" s="20"/>
-      <c r="S16" s="20"/>
-      <c r="T16" s="20"/>
-      <c r="U16" s="20"/>
-      <c r="V16" s="20"/>
-      <c r="W16" s="20"/>
-      <c r="X16" s="20"/>
-      <c r="Y16" s="20"/>
-      <c r="Z16" s="20"/>
-      <c r="AA16" s="20"/>
-      <c r="AB16" s="20"/>
-      <c r="AC16" s="22"/>
-    </row>
-    <row r="17" spans="1:29" s="19" customFormat="1">
+        <v>43</v>
+      </c>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="19"/>
+      <c r="M16" s="19"/>
+      <c r="N16" s="19"/>
+      <c r="O16" s="19"/>
+      <c r="P16" s="19"/>
+      <c r="Q16" s="19"/>
+      <c r="R16" s="19"/>
+      <c r="S16" s="19"/>
+      <c r="T16" s="19"/>
+      <c r="U16" s="19"/>
+      <c r="V16" s="19"/>
+      <c r="W16" s="19"/>
+      <c r="X16" s="19"/>
+      <c r="Y16" s="19"/>
+      <c r="Z16" s="19"/>
+      <c r="AA16" s="19"/>
+      <c r="AB16" s="19"/>
+      <c r="AC16" s="21"/>
+    </row>
+    <row r="17" spans="1:29" s="18" customFormat="1">
       <c r="A17" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="B17" s="16">
+        <v>37</v>
+      </c>
+      <c r="B17" s="15">
         <v>43449</v>
       </c>
-      <c r="C17" s="15" t="s">
-        <v>55</v>
+      <c r="C17" s="14" t="s">
+        <v>45</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="E17" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="F17" s="14" t="s">
-        <v>19</v>
+        <v>47</v>
+      </c>
+      <c r="E17" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>15</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="H17" s="20"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="20"/>
-      <c r="K17" s="20"/>
-      <c r="L17" s="20"/>
-      <c r="M17" s="20"/>
-      <c r="N17" s="20"/>
-      <c r="O17" s="20"/>
-      <c r="P17" s="20"/>
-      <c r="Q17" s="20"/>
-      <c r="R17" s="20"/>
-      <c r="S17" s="20"/>
-      <c r="T17" s="20"/>
-      <c r="U17" s="20"/>
-      <c r="V17" s="20"/>
-      <c r="W17" s="20"/>
-      <c r="X17" s="20"/>
-      <c r="Y17" s="20"/>
-      <c r="Z17" s="20"/>
-      <c r="AA17" s="20"/>
-      <c r="AB17" s="20"/>
-      <c r="AC17" s="22"/>
+        <v>48</v>
+      </c>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="19"/>
+      <c r="L17" s="19"/>
+      <c r="M17" s="19"/>
+      <c r="N17" s="19"/>
+      <c r="O17" s="19"/>
+      <c r="P17" s="19"/>
+      <c r="Q17" s="19"/>
+      <c r="R17" s="19"/>
+      <c r="S17" s="19"/>
+      <c r="T17" s="19"/>
+      <c r="U17" s="19"/>
+      <c r="V17" s="19"/>
+      <c r="W17" s="19"/>
+      <c r="X17" s="19"/>
+      <c r="Y17" s="19"/>
+      <c r="Z17" s="19"/>
+      <c r="AA17" s="19"/>
+      <c r="AB17" s="19"/>
+      <c r="AC17" s="21"/>
     </row>
     <row r="18" spans="1:29">
       <c r="A18" s="6" t="s">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="B18" s="10">
         <v>43597</v>
       </c>
-      <c r="C18" s="15" t="s">
-        <v>68</v>
+      <c r="C18" s="14" t="s">
+        <v>54</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="E18" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="F18" s="14" t="s">
-        <v>19</v>
+        <v>52</v>
+      </c>
+      <c r="E18" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>15</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="H18" s="23"/>
-      <c r="I18" s="23"/>
-      <c r="J18" s="23"/>
-      <c r="K18" s="23"/>
-      <c r="L18" s="23"/>
-      <c r="M18" s="23"/>
-      <c r="N18" s="23"/>
-      <c r="O18" s="23"/>
-      <c r="P18" s="23"/>
-      <c r="Q18" s="23"/>
-      <c r="R18" s="23"/>
-      <c r="S18" s="23"/>
-      <c r="T18" s="23"/>
-      <c r="U18" s="23"/>
-      <c r="V18" s="23"/>
-      <c r="W18" s="23"/>
-      <c r="X18" s="23"/>
-      <c r="Y18" s="23"/>
-      <c r="Z18" s="23"/>
-      <c r="AA18" s="23"/>
-      <c r="AB18" s="23"/>
-      <c r="AC18" s="23"/>
+        <v>50</v>
+      </c>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="22"/>
+      <c r="M18" s="22"/>
+      <c r="N18" s="22"/>
+      <c r="O18" s="22"/>
+      <c r="P18" s="22"/>
+      <c r="Q18" s="22"/>
+      <c r="R18" s="22"/>
+      <c r="S18" s="22"/>
+      <c r="T18" s="22"/>
+      <c r="U18" s="22"/>
+      <c r="V18" s="22"/>
+      <c r="W18" s="22"/>
+      <c r="X18" s="22"/>
+      <c r="Y18" s="22"/>
+      <c r="Z18" s="22"/>
+      <c r="AA18" s="22"/>
+      <c r="AB18" s="22"/>
+      <c r="AC18" s="22"/>
     </row>
     <row r="19" spans="1:29">
       <c r="A19" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="B19" s="28">
+        <v>37</v>
+      </c>
+      <c r="B19" s="27">
         <v>43601</v>
       </c>
-      <c r="C19" s="15" t="s">
-        <v>28</v>
+      <c r="C19" s="14" t="s">
+        <v>23</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="E19" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="F19" s="14" t="s">
-        <v>19</v>
+        <v>53</v>
+      </c>
+      <c r="E19" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="F19" s="13" t="s">
+        <v>15</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="H19" s="23"/>
-      <c r="I19" s="23"/>
-      <c r="J19" s="23"/>
-      <c r="K19" s="23"/>
-      <c r="L19" s="23"/>
-      <c r="M19" s="23"/>
-      <c r="N19" s="23"/>
-      <c r="O19" s="23"/>
-      <c r="P19" s="23"/>
-      <c r="Q19" s="23"/>
-      <c r="R19" s="23"/>
-      <c r="S19" s="23"/>
-      <c r="T19" s="23"/>
-      <c r="U19" s="23"/>
-      <c r="V19" s="23"/>
-      <c r="W19" s="23"/>
-      <c r="X19" s="23"/>
-      <c r="Y19" s="23"/>
-      <c r="Z19" s="23"/>
-      <c r="AA19" s="23"/>
-      <c r="AB19" s="23"/>
-      <c r="AC19" s="23"/>
+        <v>51</v>
+      </c>
+      <c r="H19" s="22"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="22"/>
+      <c r="L19" s="22"/>
+      <c r="M19" s="22"/>
+      <c r="N19" s="22"/>
+      <c r="O19" s="22"/>
+      <c r="P19" s="22"/>
+      <c r="Q19" s="22"/>
+      <c r="R19" s="22"/>
+      <c r="S19" s="22"/>
+      <c r="T19" s="22"/>
+      <c r="U19" s="22"/>
+      <c r="V19" s="22"/>
+      <c r="W19" s="22"/>
+      <c r="X19" s="22"/>
+      <c r="Y19" s="22"/>
+      <c r="Z19" s="22"/>
+      <c r="AA19" s="22"/>
+      <c r="AB19" s="22"/>
+      <c r="AC19" s="22"/>
     </row>
     <row r="20" spans="1:29">
       <c r="A20" s="6" t="s">
-        <v>72</v>
+        <v>37</v>
       </c>
       <c r="B20" s="10">
         <v>43694</v>
       </c>
-      <c r="C20" s="29" t="s">
-        <v>69</v>
+      <c r="C20" s="28" t="s">
+        <v>55</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="E20" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="F20" s="14" t="s">
-        <v>19</v>
+        <v>59</v>
+      </c>
+      <c r="E20" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>15</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="H20" s="23"/>
-      <c r="I20" s="23"/>
-      <c r="J20" s="23"/>
-      <c r="K20" s="23"/>
-      <c r="L20" s="23"/>
-      <c r="M20" s="23"/>
-      <c r="N20" s="23"/>
-      <c r="O20" s="23"/>
-      <c r="P20" s="23"/>
-      <c r="Q20" s="23"/>
-      <c r="R20" s="23"/>
-      <c r="S20" s="23"/>
-      <c r="T20" s="23"/>
-      <c r="U20" s="23"/>
-      <c r="V20" s="23"/>
-      <c r="W20" s="23"/>
-      <c r="X20" s="23"/>
-      <c r="Y20" s="23"/>
-      <c r="Z20" s="23"/>
-      <c r="AA20" s="23"/>
-      <c r="AB20" s="23"/>
-      <c r="AC20" s="23"/>
+        <v>64</v>
+      </c>
+      <c r="H20" s="22"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="22"/>
+      <c r="K20" s="22"/>
+      <c r="L20" s="22"/>
+      <c r="M20" s="22"/>
+      <c r="N20" s="22"/>
+      <c r="O20" s="22"/>
+      <c r="P20" s="22"/>
+      <c r="Q20" s="22"/>
+      <c r="R20" s="22"/>
+      <c r="S20" s="22"/>
+      <c r="T20" s="22"/>
+      <c r="U20" s="22"/>
+      <c r="V20" s="22"/>
+      <c r="W20" s="22"/>
+      <c r="X20" s="22"/>
+      <c r="Y20" s="22"/>
+      <c r="Z20" s="22"/>
+      <c r="AA20" s="22"/>
+      <c r="AB20" s="22"/>
+      <c r="AC20" s="22"/>
     </row>
     <row r="21" spans="1:29">
       <c r="A21" s="6" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="B21" s="10">
         <v>43736</v>
       </c>
-      <c r="C21" s="30" t="s">
-        <v>70</v>
+      <c r="C21" s="29" t="s">
+        <v>56</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="E21" s="27" t="s">
-        <v>79</v>
-      </c>
-      <c r="F21" s="14" t="s">
-        <v>19</v>
+        <v>60</v>
+      </c>
+      <c r="E21" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>15</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="H21" s="23"/>
-      <c r="I21" s="23"/>
-      <c r="J21" s="23"/>
-      <c r="K21" s="24"/>
-      <c r="L21" s="23"/>
-      <c r="M21" s="23"/>
-      <c r="N21" s="23"/>
-      <c r="O21" s="23"/>
-      <c r="P21" s="23"/>
-      <c r="Q21" s="23"/>
-      <c r="R21" s="23"/>
-      <c r="S21" s="23"/>
-      <c r="T21" s="23"/>
-      <c r="U21" s="23"/>
-      <c r="V21" s="23"/>
-      <c r="W21" s="23"/>
-      <c r="X21" s="23"/>
-      <c r="Y21" s="23"/>
-      <c r="Z21" s="23"/>
-      <c r="AA21" s="23"/>
-      <c r="AB21" s="23"/>
-      <c r="AC21" s="23"/>
+        <v>65</v>
+      </c>
+      <c r="H21" s="22"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="23"/>
+      <c r="L21" s="22"/>
+      <c r="M21" s="22"/>
+      <c r="N21" s="22"/>
+      <c r="O21" s="22"/>
+      <c r="P21" s="22"/>
+      <c r="Q21" s="22"/>
+      <c r="R21" s="22"/>
+      <c r="S21" s="22"/>
+      <c r="T21" s="22"/>
+      <c r="U21" s="22"/>
+      <c r="V21" s="22"/>
+      <c r="W21" s="22"/>
+      <c r="X21" s="22"/>
+      <c r="Y21" s="22"/>
+      <c r="Z21" s="22"/>
+      <c r="AA21" s="22"/>
+      <c r="AB21" s="22"/>
+      <c r="AC21" s="22"/>
     </row>
     <row r="22" spans="1:29">
       <c r="A22" s="6" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="B22" s="10">
         <v>43788</v>
       </c>
-      <c r="C22" s="29" t="s">
-        <v>71</v>
+      <c r="C22" s="28" t="s">
+        <v>57</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="E22" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="F22" s="14" t="s">
-        <v>19</v>
+        <v>61</v>
+      </c>
+      <c r="E22" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="F22" s="13" t="s">
+        <v>15</v>
       </c>
       <c r="G22" s="11" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="H22" s="5"/>
       <c r="I22" s="5"/>
@@ -1547,12 +1499,12 @@
       <c r="Z22" s="5"/>
       <c r="AA22" s="5"/>
       <c r="AB22" s="5"/>
-      <c r="AC22" s="25"/>
+      <c r="AC22" s="24"/>
     </row>
     <row r="23" spans="1:29">
       <c r="A23" s="5"/>
       <c r="B23" s="5"/>
-      <c r="C23" s="31"/>
+      <c r="C23" s="30"/>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
@@ -1578,12 +1530,12 @@
       <c r="Z23" s="5"/>
       <c r="AA23" s="5"/>
       <c r="AB23" s="5"/>
-      <c r="AC23" s="25"/>
+      <c r="AC23" s="24"/>
     </row>
     <row r="24" spans="1:29">
       <c r="A24" s="5"/>
       <c r="B24" s="5"/>
-      <c r="C24" s="31"/>
+      <c r="C24" s="30"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
@@ -1609,192 +1561,192 @@
       <c r="Z24" s="5"/>
       <c r="AA24" s="5"/>
       <c r="AB24" s="5"/>
-      <c r="AC24" s="25"/>
-    </row>
-    <row r="25" spans="1:29" s="25" customFormat="1">
-      <c r="A25" s="31"/>
-      <c r="B25" s="31"/>
-      <c r="D25" s="31"/>
-      <c r="E25" s="31"/>
-      <c r="F25" s="31"/>
-      <c r="G25" s="31"/>
-      <c r="H25" s="31"/>
-      <c r="I25" s="31"/>
-      <c r="J25" s="31"/>
-      <c r="K25" s="31"/>
-      <c r="L25" s="31"/>
-      <c r="M25" s="31"/>
-      <c r="N25" s="31"/>
-      <c r="O25" s="31"/>
-      <c r="P25" s="31"/>
-      <c r="Q25" s="31"/>
-      <c r="R25" s="31"/>
-      <c r="S25" s="31"/>
-      <c r="T25" s="31"/>
-      <c r="U25" s="31"/>
-      <c r="V25" s="31"/>
-      <c r="W25" s="31"/>
-      <c r="X25" s="31"/>
-      <c r="Y25" s="31"/>
-      <c r="Z25" s="31"/>
-      <c r="AA25" s="31"/>
-      <c r="AB25" s="31"/>
-      <c r="AC25" s="32"/>
-    </row>
-    <row r="26" spans="1:29" s="25" customFormat="1">
-      <c r="A26" s="33"/>
-      <c r="B26" s="31"/>
-      <c r="C26" s="31"/>
-      <c r="D26" s="31"/>
-      <c r="E26" s="31"/>
-      <c r="F26" s="31"/>
-      <c r="G26" s="31"/>
-      <c r="H26" s="31"/>
-      <c r="I26" s="31"/>
-      <c r="J26" s="31"/>
-      <c r="K26" s="31"/>
-      <c r="L26" s="31"/>
-      <c r="M26" s="31"/>
-      <c r="N26" s="31"/>
-      <c r="O26" s="31"/>
-      <c r="P26" s="31"/>
-      <c r="Q26" s="31"/>
-      <c r="R26" s="31"/>
-      <c r="S26" s="31"/>
-      <c r="T26" s="31"/>
-      <c r="U26" s="31"/>
-      <c r="V26" s="31"/>
-      <c r="W26" s="31"/>
-      <c r="X26" s="31"/>
-      <c r="Y26" s="31"/>
-      <c r="Z26" s="31"/>
-      <c r="AA26" s="31"/>
-      <c r="AB26" s="31"/>
-      <c r="AC26" s="32"/>
-    </row>
-    <row r="27" spans="1:29" s="23" customFormat="1">
-      <c r="A27" s="31"/>
-      <c r="B27" s="31"/>
-      <c r="C27" s="31"/>
-      <c r="D27" s="31"/>
-      <c r="E27" s="31"/>
-      <c r="F27" s="31"/>
-      <c r="G27" s="31"/>
-      <c r="H27" s="31"/>
-      <c r="I27" s="31"/>
-      <c r="J27" s="31"/>
-      <c r="K27" s="31"/>
-      <c r="L27" s="31"/>
-      <c r="M27" s="31"/>
-      <c r="N27" s="31"/>
-      <c r="O27" s="31"/>
-      <c r="P27" s="31"/>
-      <c r="Q27" s="31"/>
-      <c r="R27" s="31"/>
-      <c r="S27" s="31"/>
-      <c r="T27" s="31"/>
-      <c r="U27" s="31"/>
-      <c r="V27" s="31"/>
-      <c r="W27" s="31"/>
-      <c r="X27" s="31"/>
-      <c r="Y27" s="31"/>
-      <c r="Z27" s="31"/>
-      <c r="AA27" s="31"/>
-      <c r="AB27" s="31"/>
-      <c r="AC27" s="32"/>
-    </row>
-    <row r="28" spans="1:29" s="23" customFormat="1">
-      <c r="A28" s="31"/>
-      <c r="B28" s="31"/>
-      <c r="C28" s="31"/>
-      <c r="D28" s="31"/>
-      <c r="E28" s="31"/>
-      <c r="F28" s="31"/>
-      <c r="G28" s="31"/>
-      <c r="H28" s="31"/>
-      <c r="I28" s="31"/>
-      <c r="J28" s="31"/>
-      <c r="K28" s="31"/>
-      <c r="L28" s="31"/>
-      <c r="M28" s="31"/>
-      <c r="N28" s="31"/>
-      <c r="O28" s="31"/>
-      <c r="P28" s="31"/>
-      <c r="Q28" s="31"/>
-      <c r="R28" s="31"/>
-      <c r="S28" s="31"/>
-      <c r="T28" s="31"/>
-      <c r="U28" s="31"/>
-      <c r="V28" s="31"/>
-      <c r="W28" s="31"/>
-      <c r="X28" s="31"/>
-      <c r="Y28" s="31"/>
-      <c r="Z28" s="31"/>
-      <c r="AA28" s="31"/>
-      <c r="AB28" s="31"/>
-      <c r="AC28" s="32"/>
-    </row>
-    <row r="29" spans="1:29" s="23" customFormat="1">
-      <c r="A29" s="31"/>
-      <c r="B29" s="31"/>
-      <c r="C29" s="31"/>
-      <c r="D29" s="31"/>
-      <c r="E29" s="31"/>
-      <c r="F29" s="31"/>
-      <c r="G29" s="31"/>
-      <c r="H29" s="31"/>
-      <c r="I29" s="31"/>
-      <c r="J29" s="31"/>
-      <c r="K29" s="31"/>
-      <c r="L29" s="31"/>
-      <c r="M29" s="31"/>
-      <c r="N29" s="31"/>
-      <c r="O29" s="31"/>
-      <c r="P29" s="31"/>
-      <c r="Q29" s="31"/>
-      <c r="R29" s="31"/>
-      <c r="S29" s="31"/>
-      <c r="T29" s="31"/>
-      <c r="U29" s="31"/>
-      <c r="V29" s="31"/>
-      <c r="W29" s="31"/>
-      <c r="X29" s="31"/>
-      <c r="Y29" s="31"/>
-      <c r="Z29" s="31"/>
-      <c r="AA29" s="31"/>
-      <c r="AB29" s="31"/>
-      <c r="AC29" s="32"/>
-    </row>
-    <row r="30" spans="1:29" s="23" customFormat="1">
-      <c r="A30" s="31"/>
-      <c r="B30" s="31"/>
-      <c r="C30" s="31"/>
-      <c r="D30" s="31"/>
-      <c r="E30" s="31"/>
-      <c r="F30" s="31"/>
-      <c r="G30" s="31"/>
-      <c r="H30" s="31"/>
-      <c r="I30" s="31"/>
-      <c r="J30" s="31"/>
-      <c r="K30" s="31"/>
-      <c r="L30" s="31"/>
-      <c r="M30" s="31"/>
-      <c r="N30" s="31"/>
-      <c r="O30" s="31"/>
-      <c r="P30" s="31"/>
-      <c r="Q30" s="31"/>
-      <c r="R30" s="31"/>
-      <c r="S30" s="31"/>
-      <c r="T30" s="31"/>
-      <c r="U30" s="31"/>
-      <c r="V30" s="31"/>
-      <c r="W30" s="31"/>
-      <c r="X30" s="31"/>
-      <c r="Y30" s="31"/>
-      <c r="Z30" s="31"/>
-      <c r="AA30" s="31"/>
-      <c r="AB30" s="31"/>
-      <c r="AC30" s="32"/>
+      <c r="AC24" s="24"/>
+    </row>
+    <row r="25" spans="1:29" s="24" customFormat="1">
+      <c r="A25" s="30"/>
+      <c r="B25" s="30"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="30"/>
+      <c r="H25" s="30"/>
+      <c r="I25" s="30"/>
+      <c r="J25" s="30"/>
+      <c r="K25" s="30"/>
+      <c r="L25" s="30"/>
+      <c r="M25" s="30"/>
+      <c r="N25" s="30"/>
+      <c r="O25" s="30"/>
+      <c r="P25" s="30"/>
+      <c r="Q25" s="30"/>
+      <c r="R25" s="30"/>
+      <c r="S25" s="30"/>
+      <c r="T25" s="30"/>
+      <c r="U25" s="30"/>
+      <c r="V25" s="30"/>
+      <c r="W25" s="30"/>
+      <c r="X25" s="30"/>
+      <c r="Y25" s="30"/>
+      <c r="Z25" s="30"/>
+      <c r="AA25" s="30"/>
+      <c r="AB25" s="30"/>
+      <c r="AC25" s="31"/>
+    </row>
+    <row r="26" spans="1:29" s="24" customFormat="1">
+      <c r="A26" s="32"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="30"/>
+      <c r="H26" s="30"/>
+      <c r="I26" s="30"/>
+      <c r="J26" s="30"/>
+      <c r="K26" s="30"/>
+      <c r="L26" s="30"/>
+      <c r="M26" s="30"/>
+      <c r="N26" s="30"/>
+      <c r="O26" s="30"/>
+      <c r="P26" s="30"/>
+      <c r="Q26" s="30"/>
+      <c r="R26" s="30"/>
+      <c r="S26" s="30"/>
+      <c r="T26" s="30"/>
+      <c r="U26" s="30"/>
+      <c r="V26" s="30"/>
+      <c r="W26" s="30"/>
+      <c r="X26" s="30"/>
+      <c r="Y26" s="30"/>
+      <c r="Z26" s="30"/>
+      <c r="AA26" s="30"/>
+      <c r="AB26" s="30"/>
+      <c r="AC26" s="31"/>
+    </row>
+    <row r="27" spans="1:29" s="22" customFormat="1">
+      <c r="A27" s="30"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="30"/>
+      <c r="H27" s="30"/>
+      <c r="I27" s="30"/>
+      <c r="J27" s="30"/>
+      <c r="K27" s="30"/>
+      <c r="L27" s="30"/>
+      <c r="M27" s="30"/>
+      <c r="N27" s="30"/>
+      <c r="O27" s="30"/>
+      <c r="P27" s="30"/>
+      <c r="Q27" s="30"/>
+      <c r="R27" s="30"/>
+      <c r="S27" s="30"/>
+      <c r="T27" s="30"/>
+      <c r="U27" s="30"/>
+      <c r="V27" s="30"/>
+      <c r="W27" s="30"/>
+      <c r="X27" s="30"/>
+      <c r="Y27" s="30"/>
+      <c r="Z27" s="30"/>
+      <c r="AA27" s="30"/>
+      <c r="AB27" s="30"/>
+      <c r="AC27" s="31"/>
+    </row>
+    <row r="28" spans="1:29" s="22" customFormat="1">
+      <c r="A28" s="30"/>
+      <c r="B28" s="30"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="30"/>
+      <c r="G28" s="30"/>
+      <c r="H28" s="30"/>
+      <c r="I28" s="30"/>
+      <c r="J28" s="30"/>
+      <c r="K28" s="30"/>
+      <c r="L28" s="30"/>
+      <c r="M28" s="30"/>
+      <c r="N28" s="30"/>
+      <c r="O28" s="30"/>
+      <c r="P28" s="30"/>
+      <c r="Q28" s="30"/>
+      <c r="R28" s="30"/>
+      <c r="S28" s="30"/>
+      <c r="T28" s="30"/>
+      <c r="U28" s="30"/>
+      <c r="V28" s="30"/>
+      <c r="W28" s="30"/>
+      <c r="X28" s="30"/>
+      <c r="Y28" s="30"/>
+      <c r="Z28" s="30"/>
+      <c r="AA28" s="30"/>
+      <c r="AB28" s="30"/>
+      <c r="AC28" s="31"/>
+    </row>
+    <row r="29" spans="1:29" s="22" customFormat="1">
+      <c r="A29" s="30"/>
+      <c r="B29" s="30"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="30"/>
+      <c r="G29" s="30"/>
+      <c r="H29" s="30"/>
+      <c r="I29" s="30"/>
+      <c r="J29" s="30"/>
+      <c r="K29" s="30"/>
+      <c r="L29" s="30"/>
+      <c r="M29" s="30"/>
+      <c r="N29" s="30"/>
+      <c r="O29" s="30"/>
+      <c r="P29" s="30"/>
+      <c r="Q29" s="30"/>
+      <c r="R29" s="30"/>
+      <c r="S29" s="30"/>
+      <c r="T29" s="30"/>
+      <c r="U29" s="30"/>
+      <c r="V29" s="30"/>
+      <c r="W29" s="30"/>
+      <c r="X29" s="30"/>
+      <c r="Y29" s="30"/>
+      <c r="Z29" s="30"/>
+      <c r="AA29" s="30"/>
+      <c r="AB29" s="30"/>
+      <c r="AC29" s="31"/>
+    </row>
+    <row r="30" spans="1:29" s="22" customFormat="1">
+      <c r="A30" s="30"/>
+      <c r="B30" s="30"/>
+      <c r="C30" s="30"/>
+      <c r="D30" s="30"/>
+      <c r="E30" s="30"/>
+      <c r="F30" s="30"/>
+      <c r="G30" s="30"/>
+      <c r="H30" s="30"/>
+      <c r="I30" s="30"/>
+      <c r="J30" s="30"/>
+      <c r="K30" s="30"/>
+      <c r="L30" s="30"/>
+      <c r="M30" s="30"/>
+      <c r="N30" s="30"/>
+      <c r="O30" s="30"/>
+      <c r="P30" s="30"/>
+      <c r="Q30" s="30"/>
+      <c r="R30" s="30"/>
+      <c r="S30" s="30"/>
+      <c r="T30" s="30"/>
+      <c r="U30" s="30"/>
+      <c r="V30" s="30"/>
+      <c r="W30" s="30"/>
+      <c r="X30" s="30"/>
+      <c r="Y30" s="30"/>
+      <c r="Z30" s="30"/>
+      <c r="AA30" s="30"/>
+      <c r="AB30" s="30"/>
+      <c r="AC30" s="31"/>
     </row>
     <row r="31" spans="1:29">
       <c r="A31" s="1"/>

--- a/excel/import invoice.xlsx
+++ b/excel/import invoice.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/fa_sai/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8A65205B-D0EC-F046-9E6A-295F79876B1F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78AC3772-FE80-7042-8919-02C3BB515715}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="960" windowWidth="25040" windowHeight="14060" xr2:uid="{329E2B7B-EBAD-E649-85EA-0820AD4453A7}"/>
   </bookViews>
@@ -699,14 +699,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5931E9C3-C962-3846-B590-0F2E86192E67}">
   <dimension ref="A1:AC26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="O25" sqref="A1:AC26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:AC26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="10.83203125" style="1"/>
     <col min="3" max="3" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.2">

--- a/excel/import invoice.xlsx
+++ b/excel/import invoice.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/fa_sai/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78AC3772-FE80-7042-8919-02C3BB515715}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCF0C1C8-F6E4-624F-9F98-ED8BE362D176}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="960" windowWidth="25040" windowHeight="14060" xr2:uid="{329E2B7B-EBAD-E649-85EA-0820AD4453A7}"/>
   </bookViews>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="72">
   <si>
     <t>HIB</t>
   </si>
@@ -257,6 +257,24 @@
   </si>
   <si>
     <t>TGBU6779091</t>
+  </si>
+  <si>
+    <t>NIFCO</t>
+  </si>
+  <si>
+    <t>PT. TENMA INDONESIA</t>
+  </si>
+  <si>
+    <t>TAP-AW</t>
+  </si>
+  <si>
+    <t>TAP-VT</t>
+  </si>
+  <si>
+    <t>DAT</t>
+  </si>
+  <si>
+    <t>SCHLEMMER2</t>
   </si>
 </sst>
 </file>
@@ -267,7 +285,7 @@
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -313,8 +331,26 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Garamond"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Garamond"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF333333"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -331,6 +367,24 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCE4D6"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -362,7 +416,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -382,6 +436,22 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="165" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -699,8 +769,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5931E9C3-C962-3846-B590-0F2E86192E67}">
   <dimension ref="A1:AC26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:AC26"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="P26" sqref="P26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -708,6 +778,7 @@
     <col min="2" max="2" width="10.83203125" style="1"/>
     <col min="3" max="3" width="15.83203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="22.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.2">
@@ -847,8 +918,8 @@
       <c r="U2" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="V2" s="6" t="s">
-        <v>0</v>
+      <c r="V2" s="15" t="s">
+        <v>67</v>
       </c>
       <c r="W2" s="5">
         <v>1</v>
@@ -1177,8 +1248,8 @@
       <c r="U8" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="V8" s="6" t="s">
-        <v>0</v>
+      <c r="V8" s="11" t="s">
+        <v>67</v>
       </c>
       <c r="W8" s="5">
         <v>7</v>
@@ -1287,8 +1358,8 @@
       <c r="U10" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="V10" s="6" t="s">
-        <v>0</v>
+      <c r="V10" s="12" t="s">
+        <v>70</v>
       </c>
       <c r="W10" s="5">
         <v>9</v>
@@ -1452,8 +1523,8 @@
       <c r="U13" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="V13" s="6" t="s">
-        <v>0</v>
+      <c r="V13" s="13" t="s">
+        <v>66</v>
       </c>
       <c r="W13" s="5">
         <v>12</v>
@@ -1672,8 +1743,8 @@
       <c r="U17" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="V17" s="6" t="s">
-        <v>0</v>
+      <c r="V17" s="14" t="s">
+        <v>68</v>
       </c>
       <c r="W17" s="5">
         <v>16</v>
@@ -1727,8 +1798,8 @@
       <c r="U18" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="V18" s="6" t="s">
-        <v>0</v>
+      <c r="V18" s="14" t="s">
+        <v>69</v>
       </c>
       <c r="W18" s="5">
         <v>17</v>
@@ -2119,7 +2190,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:23" ht="18" x14ac:dyDescent="0.2">
       <c r="A26" s="5">
         <v>25</v>
       </c>
@@ -2154,7 +2225,7 @@
         <v>64</v>
       </c>
       <c r="P26" s="6">
-        <v>20190705</v>
+        <v>20190105</v>
       </c>
       <c r="Q26" s="6">
         <v>126.57</v>
@@ -2167,8 +2238,8 @@
       <c r="U26" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="V26" s="6" t="s">
-        <v>0</v>
+      <c r="V26" s="16" t="s">
+        <v>71</v>
       </c>
       <c r="W26" s="5">
         <v>25</v>

--- a/excel/import invoice.xlsx
+++ b/excel/import invoice.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/fa_sai/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCF0C1C8-F6E4-624F-9F98-ED8BE362D176}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0113AB9-3FEF-D24A-8AC1-8A03F8A4383D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="960" windowWidth="25040" windowHeight="14060" xr2:uid="{329E2B7B-EBAD-E649-85EA-0820AD4453A7}"/>
   </bookViews>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="73">
   <si>
     <t>HIB</t>
   </si>
@@ -275,6 +275,9 @@
   </si>
   <si>
     <t>SCHLEMMER2</t>
+  </si>
+  <si>
+    <t>TAP</t>
   </si>
 </sst>
 </file>
@@ -285,7 +288,7 @@
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -348,6 +351,12 @@
       <color rgb="FF333333"/>
       <name val="Helvetica Neue"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="High Tower Text"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="7">
@@ -416,7 +425,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -452,6 +461,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -769,11 +781,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5931E9C3-C962-3846-B590-0F2E86192E67}">
   <dimension ref="A1:AC26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="P26" sqref="P26"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="V26" sqref="V26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="2" max="2" width="10.83203125" style="1"/>
     <col min="3" max="3" width="15.83203125" bestFit="1" customWidth="1"/>
@@ -781,7 +793,7 @@
     <col min="22" max="22" width="22.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:29">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -870,7 +882,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:29">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -925,7 +937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:29">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -980,7 +992,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:29">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -1035,7 +1047,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -1090,7 +1102,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -1145,7 +1157,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -1200,7 +1212,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -1255,7 +1267,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -1310,7 +1322,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -1365,7 +1377,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -1420,7 +1432,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:29">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -1475,7 +1487,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:29">
       <c r="A13" s="5">
         <v>12</v>
       </c>
@@ -1530,7 +1542,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:29">
       <c r="A14" s="5">
         <v>13</v>
       </c>
@@ -1585,7 +1597,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:29">
       <c r="A15" s="5">
         <v>14</v>
       </c>
@@ -1640,7 +1652,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:29">
       <c r="A16" s="5">
         <v>15</v>
       </c>
@@ -1695,7 +1707,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:23">
       <c r="A17" s="5">
         <v>16</v>
       </c>
@@ -1750,7 +1762,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:23">
       <c r="A18" s="5">
         <v>17</v>
       </c>
@@ -1805,7 +1817,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:23">
       <c r="A19" s="5">
         <v>18</v>
       </c>
@@ -1860,7 +1872,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:23">
       <c r="A20" s="5">
         <v>19</v>
       </c>
@@ -1915,7 +1927,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:23">
       <c r="A21" s="5">
         <v>20</v>
       </c>
@@ -1970,7 +1982,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:23">
       <c r="A22" s="5">
         <v>21</v>
       </c>
@@ -2018,14 +2030,14 @@
       <c r="U22" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="V22" s="6" t="s">
-        <v>0</v>
+      <c r="V22" s="17" t="s">
+        <v>72</v>
       </c>
       <c r="W22" s="5">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:23">
       <c r="A23" s="5">
         <v>22</v>
       </c>
@@ -2080,7 +2092,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:23">
       <c r="A24" s="5">
         <v>23</v>
       </c>
@@ -2135,7 +2147,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:23">
       <c r="A25" s="5">
         <v>24</v>
       </c>
@@ -2190,7 +2202,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:23" ht="18" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:23" ht="18">
       <c r="A26" s="5">
         <v>25</v>
       </c>

--- a/excel/import invoice.xlsx
+++ b/excel/import invoice.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/fa_sai/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0113AB9-3FEF-D24A-8AC1-8A03F8A4383D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1EBDD19-63BC-7447-AE95-11FBA18B969B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="960" windowWidth="25040" windowHeight="14060" xr2:uid="{329E2B7B-EBAD-E649-85EA-0820AD4453A7}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{329E2B7B-EBAD-E649-85EA-0820AD4453A7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="110">
   <si>
     <t>HIB</t>
   </si>
@@ -274,10 +274,121 @@
     <t>DAT</t>
   </si>
   <si>
-    <t>SCHLEMMER2</t>
-  </si>
-  <si>
     <t>TAP</t>
+  </si>
+  <si>
+    <t>TGBU6779092</t>
+  </si>
+  <si>
+    <t>TGBU6779093</t>
+  </si>
+  <si>
+    <t>7183-6096-31</t>
+  </si>
+  <si>
+    <t>7186-8851-31</t>
+  </si>
+  <si>
+    <t>7154-6335</t>
+  </si>
+  <si>
+    <t>7183-6096-32</t>
+  </si>
+  <si>
+    <t>7186-8851-32</t>
+  </si>
+  <si>
+    <t>7154-6336</t>
+  </si>
+  <si>
+    <t>7183-6096-33</t>
+  </si>
+  <si>
+    <t>7186-8851-33</t>
+  </si>
+  <si>
+    <t>7154-6337</t>
+  </si>
+  <si>
+    <t>7183-6096-34</t>
+  </si>
+  <si>
+    <t>7186-8851-34</t>
+  </si>
+  <si>
+    <t>7154-6338</t>
+  </si>
+  <si>
+    <t>7183-6096-35</t>
+  </si>
+  <si>
+    <t>7186-8851-35</t>
+  </si>
+  <si>
+    <t>7154-6339</t>
+  </si>
+  <si>
+    <t>7183-6096-36</t>
+  </si>
+  <si>
+    <t>7186-8851-36</t>
+  </si>
+  <si>
+    <t>7154-6340</t>
+  </si>
+  <si>
+    <t>7183-6096-37</t>
+  </si>
+  <si>
+    <t>7186-8851-37</t>
+  </si>
+  <si>
+    <t>JL01-8390</t>
+  </si>
+  <si>
+    <t>NQ908C</t>
+  </si>
+  <si>
+    <t>SCHLEMMER</t>
+  </si>
+  <si>
+    <t>PT. PIOLAX INDONESIA</t>
+  </si>
+  <si>
+    <t>PT. SATO SEIKI</t>
+  </si>
+  <si>
+    <t>HZY</t>
+  </si>
+  <si>
+    <t>ARROW ELECTRONICS AS</t>
+  </si>
+  <si>
+    <t>IRC INOAC</t>
+  </si>
+  <si>
+    <t>PT. INDOWIRE PRIMA</t>
+  </si>
+  <si>
+    <t>PT. NMI</t>
+  </si>
+  <si>
+    <t>SAMI</t>
+  </si>
+  <si>
+    <t>SUGITY</t>
+  </si>
+  <si>
+    <t>TAP-INJ</t>
+  </si>
+  <si>
+    <t>J/A</t>
+  </si>
+  <si>
+    <t>TESA</t>
+  </si>
+  <si>
+    <t>YCIC</t>
   </si>
 </sst>
 </file>
@@ -359,7 +470,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -388,12 +499,6 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFCE4D6"/>
-        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -425,7 +530,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -451,17 +556,27 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -779,16 +894,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5931E9C3-C962-3846-B590-0F2E86192E67}">
-  <dimension ref="A1:AC26"/>
+  <dimension ref="A1:AC46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="V26" sqref="V26"/>
+    <sheetView tabSelected="1" topLeftCell="N15" workbookViewId="0">
+      <selection activeCell="W25" sqref="W25:W46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="2" max="2" width="10.83203125" style="1"/>
     <col min="3" max="3" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="22.83203125" customWidth="1"/>
   </cols>
@@ -930,7 +1046,7 @@
       <c r="U2" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="V2" s="15" t="s">
+      <c r="V2" s="18" t="s">
         <v>67</v>
       </c>
       <c r="W2" s="5">
@@ -985,7 +1101,7 @@
       <c r="U3" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="V3" s="8" t="s">
+      <c r="V3" s="16" t="s">
         <v>0</v>
       </c>
       <c r="W3" s="5">
@@ -1040,7 +1156,7 @@
       <c r="U4" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="V4" s="6" t="s">
+      <c r="V4" s="16" t="s">
         <v>0</v>
       </c>
       <c r="W4" s="5">
@@ -1095,7 +1211,7 @@
       <c r="U5" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="V5" s="6" t="s">
+      <c r="V5" s="16" t="s">
         <v>0</v>
       </c>
       <c r="W5" s="5">
@@ -1150,7 +1266,7 @@
       <c r="U6" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="V6" s="6" t="s">
+      <c r="V6" s="16" t="s">
         <v>0</v>
       </c>
       <c r="W6" s="5">
@@ -1205,7 +1321,7 @@
       <c r="U7" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="V7" s="6" t="s">
+      <c r="V7" s="16" t="s">
         <v>0</v>
       </c>
       <c r="W7" s="5">
@@ -1260,7 +1376,7 @@
       <c r="U8" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="V8" s="11" t="s">
+      <c r="V8" s="19" t="s">
         <v>67</v>
       </c>
       <c r="W8" s="5">
@@ -1315,7 +1431,7 @@
       <c r="U9" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="V9" s="6" t="s">
+      <c r="V9" s="16" t="s">
         <v>0</v>
       </c>
       <c r="W9" s="5">
@@ -1370,7 +1486,7 @@
       <c r="U10" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="V10" s="12" t="s">
+      <c r="V10" s="19" t="s">
         <v>70</v>
       </c>
       <c r="W10" s="5">
@@ -1425,7 +1541,7 @@
       <c r="U11" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="V11" s="6" t="s">
+      <c r="V11" s="16" t="s">
         <v>0</v>
       </c>
       <c r="W11" s="5">
@@ -1480,7 +1596,7 @@
       <c r="U12" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="V12" s="6" t="s">
+      <c r="V12" s="16" t="s">
         <v>0</v>
       </c>
       <c r="W12" s="5">
@@ -1535,7 +1651,7 @@
       <c r="U13" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="V13" s="13" t="s">
+      <c r="V13" s="19" t="s">
         <v>66</v>
       </c>
       <c r="W13" s="5">
@@ -1590,7 +1706,7 @@
       <c r="U14" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="V14" s="6" t="s">
+      <c r="V14" s="16" t="s">
         <v>0</v>
       </c>
       <c r="W14" s="5">
@@ -1645,7 +1761,7 @@
       <c r="U15" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="V15" s="6" t="s">
+      <c r="V15" s="16" t="s">
         <v>0</v>
       </c>
       <c r="W15" s="5">
@@ -1700,7 +1816,7 @@
       <c r="U16" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="V16" s="6" t="s">
+      <c r="V16" s="16" t="s">
         <v>0</v>
       </c>
       <c r="W16" s="5">
@@ -1755,7 +1871,7 @@
       <c r="U17" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="V17" s="14" t="s">
+      <c r="V17" s="19" t="s">
         <v>68</v>
       </c>
       <c r="W17" s="5">
@@ -1810,7 +1926,7 @@
       <c r="U18" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="V18" s="14" t="s">
+      <c r="V18" s="19" t="s">
         <v>69</v>
       </c>
       <c r="W18" s="5">
@@ -1865,7 +1981,7 @@
       <c r="U19" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="V19" s="6" t="s">
+      <c r="V19" s="16" t="s">
         <v>0</v>
       </c>
       <c r="W19" s="5">
@@ -1920,7 +2036,7 @@
       <c r="U20" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="V20" s="6" t="s">
+      <c r="V20" s="16" t="s">
         <v>0</v>
       </c>
       <c r="W20" s="5">
@@ -1975,7 +2091,7 @@
       <c r="U21" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="V21" s="6" t="s">
+      <c r="V21" s="16" t="s">
         <v>0</v>
       </c>
       <c r="W21" s="5">
@@ -2030,8 +2146,8 @@
       <c r="U22" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="V22" s="17" t="s">
-        <v>72</v>
+      <c r="V22" s="20" t="s">
+        <v>71</v>
       </c>
       <c r="W22" s="5">
         <v>21</v>
@@ -2085,7 +2201,7 @@
       <c r="U23" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="V23" s="6" t="s">
+      <c r="V23" s="16" t="s">
         <v>0</v>
       </c>
       <c r="W23" s="5">
@@ -2140,7 +2256,7 @@
       <c r="U24" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="V24" s="6" t="s">
+      <c r="V24" s="16" t="s">
         <v>0</v>
       </c>
       <c r="W24" s="5">
@@ -2195,7 +2311,7 @@
       <c r="U25" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="V25" s="6" t="s">
+      <c r="V25" s="16" t="s">
         <v>0</v>
       </c>
       <c r="W25" s="5">
@@ -2250,11 +2366,951 @@
       <c r="U26" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="V26" s="16" t="s">
-        <v>71</v>
+      <c r="V26" s="17" t="s">
+        <v>96</v>
       </c>
       <c r="W26" s="5">
         <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23">
+      <c r="A27" s="5">
+        <v>26</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G27" s="7">
+        <v>264</v>
+      </c>
+      <c r="H27" s="6">
+        <v>3</v>
+      </c>
+      <c r="J27" s="7">
+        <v>2000</v>
+      </c>
+      <c r="K27" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="L27" s="6">
+        <v>18</v>
+      </c>
+      <c r="O27" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="P27" s="15">
+        <v>20190215</v>
+      </c>
+      <c r="Q27" s="6">
+        <v>104.82</v>
+      </c>
+      <c r="R27" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="U27" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="V27" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="W27" s="5">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23">
+      <c r="A28" s="5">
+        <v>27</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="G28" s="14">
+        <v>100</v>
+      </c>
+      <c r="H28" s="6">
+        <v>4</v>
+      </c>
+      <c r="J28" s="7">
+        <v>2000</v>
+      </c>
+      <c r="K28" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="L28" s="6">
+        <v>18</v>
+      </c>
+      <c r="O28" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="P28" s="15">
+        <v>20190801</v>
+      </c>
+      <c r="Q28" s="6">
+        <v>225.97</v>
+      </c>
+      <c r="R28" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="U28" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="V28" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="W28" s="5">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23">
+      <c r="A29" s="5">
+        <v>28</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="G29" s="14">
+        <v>70</v>
+      </c>
+      <c r="H29" s="6">
+        <v>5</v>
+      </c>
+      <c r="J29" s="7">
+        <v>5000</v>
+      </c>
+      <c r="K29" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="L29" s="6">
+        <v>18</v>
+      </c>
+      <c r="O29" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="P29" s="6">
+        <v>20190105</v>
+      </c>
+      <c r="Q29" s="6">
+        <v>347.12</v>
+      </c>
+      <c r="R29" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="U29" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="V29" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="W29" s="5">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23">
+      <c r="A30" s="5">
+        <v>29</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="G30" s="14">
+        <v>89</v>
+      </c>
+      <c r="H30" s="6">
+        <v>6</v>
+      </c>
+      <c r="J30" s="7">
+        <v>1300</v>
+      </c>
+      <c r="K30" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="L30" s="6">
+        <v>18</v>
+      </c>
+      <c r="O30" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="P30" s="15">
+        <v>20190215</v>
+      </c>
+      <c r="Q30" s="6">
+        <v>23.67</v>
+      </c>
+      <c r="R30" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="U30" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="V30" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="W30" s="5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23">
+      <c r="A31" s="5">
+        <v>30</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="G31" s="14">
+        <v>99</v>
+      </c>
+      <c r="H31" s="6">
+        <v>17</v>
+      </c>
+      <c r="J31" s="7">
+        <v>800</v>
+      </c>
+      <c r="K31" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="L31" s="6">
+        <v>18</v>
+      </c>
+      <c r="O31" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="P31" s="6">
+        <v>20190325</v>
+      </c>
+      <c r="Q31" s="6">
+        <v>466</v>
+      </c>
+      <c r="R31" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="U31" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="V31" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="W31" s="5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23">
+      <c r="A32" s="5">
+        <v>31</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="G32" s="14">
+        <v>55</v>
+      </c>
+      <c r="H32" s="6">
+        <v>8</v>
+      </c>
+      <c r="J32" s="7">
+        <v>200</v>
+      </c>
+      <c r="K32" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="L32" s="6">
+        <v>18</v>
+      </c>
+      <c r="O32" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="P32" s="6">
+        <v>20190725</v>
+      </c>
+      <c r="Q32" s="6">
+        <v>908.33</v>
+      </c>
+      <c r="R32" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="U32" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="V32" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="W32" s="5">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23">
+      <c r="A33" s="5">
+        <v>32</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="G33" s="14">
+        <v>400</v>
+      </c>
+      <c r="H33" s="6">
+        <v>9</v>
+      </c>
+      <c r="J33" s="7">
+        <v>200</v>
+      </c>
+      <c r="K33" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="L33" s="6">
+        <v>18</v>
+      </c>
+      <c r="O33" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="P33" s="6">
+        <v>20190408</v>
+      </c>
+      <c r="Q33" s="6">
+        <v>1350.66</v>
+      </c>
+      <c r="R33" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="U33" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="V33" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="W33" s="5">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23">
+      <c r="A34" s="5">
+        <v>33</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="G34" s="14">
+        <v>2000</v>
+      </c>
+      <c r="H34" s="6">
+        <v>10</v>
+      </c>
+      <c r="J34" s="7">
+        <v>2000</v>
+      </c>
+      <c r="K34" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="L34" s="6">
+        <v>18</v>
+      </c>
+      <c r="O34" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="P34" s="6">
+        <v>20190405</v>
+      </c>
+      <c r="Q34" s="6">
+        <v>1792.99</v>
+      </c>
+      <c r="R34" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="U34" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="V34" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="W34" s="5">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23">
+      <c r="A35" s="5">
+        <v>34</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="G35" s="14">
+        <v>345</v>
+      </c>
+      <c r="H35" s="6">
+        <v>2</v>
+      </c>
+      <c r="J35" s="7">
+        <v>100</v>
+      </c>
+      <c r="K35" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="L35" s="6">
+        <v>18</v>
+      </c>
+      <c r="O35" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="P35" s="6">
+        <v>20190402</v>
+      </c>
+      <c r="Q35" s="6">
+        <v>908.33</v>
+      </c>
+      <c r="R35" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="U35" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="V35" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="W35" s="5">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23">
+      <c r="A36" s="5">
+        <v>35</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="G36" s="14">
+        <v>657</v>
+      </c>
+      <c r="H36" s="6">
+        <v>12</v>
+      </c>
+      <c r="J36" s="7">
+        <v>2800</v>
+      </c>
+      <c r="K36" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="L36" s="6">
+        <v>18</v>
+      </c>
+      <c r="O36" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="P36" s="6">
+        <v>20190408</v>
+      </c>
+      <c r="Q36" s="6">
+        <v>23.670000000000101</v>
+      </c>
+      <c r="R36" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="U36" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="V36" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="W36" s="5">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23">
+      <c r="A37" s="5">
+        <v>36</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="G37" s="14">
+        <v>919</v>
+      </c>
+      <c r="H37" s="6">
+        <v>13</v>
+      </c>
+      <c r="J37" s="7">
+        <v>5000</v>
+      </c>
+      <c r="K37" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="L37" s="6">
+        <v>18</v>
+      </c>
+      <c r="O37" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="P37" s="6">
+        <v>20190414</v>
+      </c>
+      <c r="Q37" s="6">
+        <v>347.12</v>
+      </c>
+      <c r="R37" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="U37" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="V37" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="W37" s="5">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23">
+      <c r="A38" s="5">
+        <v>37</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="G38" s="14">
+        <v>456</v>
+      </c>
+      <c r="H38" s="6">
+        <v>5</v>
+      </c>
+      <c r="J38" s="7">
+        <v>5000</v>
+      </c>
+      <c r="K38" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="L38" s="6">
+        <v>18</v>
+      </c>
+      <c r="O38" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="P38" s="6">
+        <v>20190420</v>
+      </c>
+      <c r="Q38" s="6">
+        <v>670.57</v>
+      </c>
+      <c r="R38" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="U38" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="V38" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="W38" s="5">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23">
+      <c r="A39" s="5">
+        <v>38</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="G39" s="14">
+        <v>123</v>
+      </c>
+      <c r="H39" s="6">
+        <v>15</v>
+      </c>
+      <c r="J39" s="7">
+        <v>1000</v>
+      </c>
+      <c r="K39" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="L39" s="6">
+        <v>18</v>
+      </c>
+      <c r="O39" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="P39" s="6">
+        <v>20190426</v>
+      </c>
+      <c r="Q39" s="6">
+        <v>994.02</v>
+      </c>
+      <c r="R39" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="U39" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="V39" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="W39" s="5">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23">
+      <c r="A40" s="5">
+        <v>39</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="G40" s="14">
+        <v>600</v>
+      </c>
+      <c r="H40" s="6">
+        <v>16</v>
+      </c>
+      <c r="J40" s="7">
+        <v>1000</v>
+      </c>
+      <c r="K40" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="L40" s="6">
+        <v>18</v>
+      </c>
+      <c r="O40" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="P40" s="6">
+        <v>20190914</v>
+      </c>
+      <c r="Q40" s="6">
+        <v>1317.47</v>
+      </c>
+      <c r="R40" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="U40" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="V40" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="W40" s="5">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23">
+      <c r="A41" s="5">
+        <v>40</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="G41" s="14">
+        <v>700</v>
+      </c>
+      <c r="H41" s="6">
+        <v>9</v>
+      </c>
+      <c r="J41" s="7">
+        <v>1000</v>
+      </c>
+      <c r="K41" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="L41" s="6">
+        <v>18</v>
+      </c>
+      <c r="O41" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="P41" s="6">
+        <v>20190420</v>
+      </c>
+      <c r="Q41" s="6">
+        <v>74.099999999999994</v>
+      </c>
+      <c r="R41" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="U41" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="V41" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="W41" s="5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23">
+      <c r="A42" s="5">
+        <v>41</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="G42" s="14">
+        <v>1500</v>
+      </c>
+      <c r="H42" s="6">
+        <v>18</v>
+      </c>
+      <c r="J42" s="7">
+        <v>1000</v>
+      </c>
+      <c r="K42" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="L42" s="6">
+        <v>18</v>
+      </c>
+      <c r="O42" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="P42" s="15">
+        <v>20191212</v>
+      </c>
+      <c r="Q42" s="6">
+        <v>23.670000000000101</v>
+      </c>
+      <c r="R42" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="U42" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="V42" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="W42" s="5">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23">
+      <c r="A43" s="5">
+        <v>42</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="G43" s="14">
+        <v>300</v>
+      </c>
+      <c r="H43" s="6">
+        <v>19</v>
+      </c>
+      <c r="J43" s="7">
+        <v>1000</v>
+      </c>
+      <c r="K43" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="L43" s="6">
+        <v>18</v>
+      </c>
+      <c r="O43" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="P43" s="15">
+        <v>20191109</v>
+      </c>
+      <c r="Q43" s="6">
+        <v>74.099999999999994</v>
+      </c>
+      <c r="R43" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="U43" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="V43" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="W43" s="5">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23">
+      <c r="A44" s="5">
+        <v>43</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="G44" s="14">
+        <v>40</v>
+      </c>
+      <c r="H44" s="15">
+        <v>32</v>
+      </c>
+      <c r="J44" s="7">
+        <v>100</v>
+      </c>
+      <c r="K44" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="L44" s="6">
+        <v>18</v>
+      </c>
+      <c r="O44" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="P44" s="15">
+        <v>20190909</v>
+      </c>
+      <c r="Q44" s="6">
+        <v>124.53</v>
+      </c>
+      <c r="R44" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="U44" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="V44" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="W44" s="5">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23">
+      <c r="A45" s="5">
+        <v>44</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="G45" s="14">
+        <v>600</v>
+      </c>
+      <c r="H45" s="15">
+        <v>67</v>
+      </c>
+      <c r="J45" s="7">
+        <v>200</v>
+      </c>
+      <c r="K45" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="L45" s="6">
+        <v>18</v>
+      </c>
+      <c r="O45" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="P45" s="15">
+        <v>20190709</v>
+      </c>
+      <c r="Q45" s="6">
+        <v>174.96</v>
+      </c>
+      <c r="R45" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="U45" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="V45" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="W45" s="5">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23">
+      <c r="A46" s="5">
+        <v>45</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="G46" s="14">
+        <v>760</v>
+      </c>
+      <c r="H46" s="15">
+        <v>6</v>
+      </c>
+      <c r="J46" s="7">
+        <v>650</v>
+      </c>
+      <c r="K46" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="L46" s="6">
+        <v>18</v>
+      </c>
+      <c r="O46" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="P46" s="15">
+        <v>20190219</v>
+      </c>
+      <c r="Q46" s="6">
+        <v>225.39</v>
+      </c>
+      <c r="R46" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="U46" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="V46" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="W46" s="5">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
